--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="REMISIONES   NOVIEMBRE  2021 " sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
   <si>
     <t>REMISION</t>
   </si>
@@ -124,7 +125,34 @@
     <t>falta la rosa</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <r>
+      <t>REMISIONES    POR     CREDITOS         DE    NOVIEMBRE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        2 0 2 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERCIO CENTRAL </t>
   </si>
 </sst>
 </file>
@@ -521,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,6 +728,11 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -807,6 +840,117 @@
       <xdr:spPr>
         <a:xfrm rot="5400000">
           <a:off x="5472114" y="6196017"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="27922540"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="27970167"/>
           <a:ext cx="638173" cy="495298"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1104,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D4:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1348,7 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
@@ -1226,7 +1370,7 @@
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
@@ -3520,6 +3664,2111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:I134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44508</v>
+      </c>
+      <c r="B4" s="13">
+        <v>42</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1676</v>
+      </c>
+      <c r="F4" s="16">
+        <v>44508</v>
+      </c>
+      <c r="G4" s="17">
+        <v>1676</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" ref="H4:H116" si="0">E4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B5" s="13">
+        <f>B4+1</f>
+        <v>43</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B6" s="13">
+        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <v>44</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>44509</v>
+      </c>
+      <c r="B7" s="13">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="20">
+        <v>120</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B8" s="13">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20">
+        <v>307</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="18">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="13">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
+      <c r="B45" s="13">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="13">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="13">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="13">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="13">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="13">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="13">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="13">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="13">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="13">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
+      <c r="B55" s="13">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="13">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="13">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="13">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="13">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="13">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="13">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="13">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="13">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="13">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="13">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="13">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" s="13">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" s="13">
+        <f t="shared" ref="B70:B112" si="2">B69+1</f>
+        <v>108</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23"/>
+      <c r="B71" s="13">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23"/>
+      <c r="B72" s="13">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23"/>
+      <c r="B73" s="13">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" s="13">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" s="13">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23"/>
+      <c r="B76" s="13">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="13">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="13">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23"/>
+      <c r="B79" s="13">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="13">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" s="13">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="13">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" s="13">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" s="13">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" s="13">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" s="13">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" s="13">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" s="13">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" s="13">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" s="13">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23"/>
+      <c r="B91" s="13">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="23"/>
+      <c r="B92" s="13">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23"/>
+      <c r="B93" s="13">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="13">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23"/>
+      <c r="B95" s="13">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="13">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="23"/>
+      <c r="B97" s="13">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="23"/>
+      <c r="B98" s="13">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23"/>
+      <c r="B99" s="13">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="23"/>
+      <c r="B100" s="13">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23"/>
+      <c r="B101" s="13">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23"/>
+      <c r="B102" s="13">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23"/>
+      <c r="B103" s="13">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="C103" s="24"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23"/>
+      <c r="B104" s="13">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="C104" s="24"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23"/>
+      <c r="B105" s="13">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="23"/>
+      <c r="B106" s="13">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23"/>
+      <c r="B107" s="13">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="23"/>
+      <c r="B108" s="13">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23"/>
+      <c r="B109" s="13">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="23"/>
+      <c r="B110" s="13">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="C110" s="24"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23"/>
+      <c r="B111" s="13">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="23"/>
+      <c r="B112" s="13">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="23"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="23"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="23"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="34">
+        <v>0</v>
+      </c>
+      <c r="F116" s="35"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="37"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="39">
+        <f>SUM(E4:E116)</f>
+        <v>2103</v>
+      </c>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39">
+        <f>SUM(G4:G116)</f>
+        <v>1676</v>
+      </c>
+      <c r="H117" s="40">
+        <f>SUM(H4:H116)</f>
+        <v>427</v>
+      </c>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="37"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B119" s="37"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="42"/>
+      <c r="G119" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="37"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="37"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="78">
+        <f>E117-G117</f>
+        <v>427</v>
+      </c>
+      <c r="F121" s="79"/>
+      <c r="G121" s="80"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="37"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="43"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B123" s="37"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="37"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="43"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="30"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="50"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="37"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="43"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="37"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="43"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="37"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="42"/>
+      <c r="G128" s="43"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="37"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="42"/>
+      <c r="G129" s="43"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="37"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="43"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="37"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="43"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="37"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="41"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="43"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="37"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="43"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="37"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="43"/>
+      <c r="I134" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E123:G123"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t>REMISION</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">COMERCIO CENTRAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABASTOS DE 4 CARNES 11 SUR </t>
   </si>
 </sst>
 </file>
@@ -704,6 +707,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,11 +736,6 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1268,25 +1271,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3522,12 +3525,12 @@
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="78">
+      <c r="E121" s="81">
         <f>E117-G117</f>
         <v>102596</v>
       </c>
-      <c r="F121" s="79"/>
-      <c r="G121" s="80"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="83"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3543,11 +3546,11 @@
       <c r="B123" s="37"/>
       <c r="C123" s="38"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="81" t="s">
+      <c r="E123" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -3669,8 +3672,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3689,25 +3692,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3745,7 +3748,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="76" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="15">
@@ -3838,7 +3841,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="74" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="20">
@@ -3852,14 +3855,20 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>44510</v>
+      </c>
       <c r="B9" s="13">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="18">
@@ -3868,94 +3877,130 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12">
+        <v>44510</v>
+      </c>
       <c r="B10" s="13">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1333</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12">
+        <v>44511</v>
+      </c>
       <c r="B11" s="13">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="20">
+        <v>150</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>44511</v>
+      </c>
       <c r="B12" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20">
+        <v>2460</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>44512</v>
+      </c>
       <c r="B13" s="13">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="20">
+        <v>8923</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>44512</v>
+      </c>
       <c r="B14" s="13">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="20">
+        <v>47911</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47911</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>44512</v>
+      </c>
       <c r="B15" s="13">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
@@ -3964,78 +4009,108 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>44512</v>
+      </c>
       <c r="B16" s="13">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20">
+        <v>622</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>44512</v>
+      </c>
       <c r="B17" s="13">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="20">
+        <v>10714</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44512</v>
+      </c>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>1785</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44512</v>
+      </c>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>13805</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13805</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44513</v>
+      </c>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
@@ -4044,46 +4119,64 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44513</v>
+      </c>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="20">
+        <v>18875</v>
+      </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18875</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44513</v>
+      </c>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="20">
+        <v>10476</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10476</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44513</v>
+      </c>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
@@ -4092,51 +4185,69 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44513</v>
+      </c>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="20">
+        <v>219644</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>219644</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44513</v>
+      </c>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="20">
+        <v>2546</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44513</v>
+      </c>
       <c r="B26" s="13">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="20">
+        <v>39216</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39216</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -4198,7 +4309,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="83">
+      <c r="H30" s="75">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5576,7 +5687,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>2103</v>
+        <v>380563</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
@@ -5585,7 +5696,7 @@
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>427</v>
+        <v>378887</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -5627,12 +5738,12 @@
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="78">
+      <c r="E121" s="81">
         <f>E117-G117</f>
-        <v>427</v>
-      </c>
-      <c r="F121" s="79"/>
-      <c r="G121" s="80"/>
+        <v>378887</v>
+      </c>
+      <c r="F121" s="82"/>
+      <c r="G121" s="83"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5648,11 +5759,11 @@
       <c r="B123" s="37"/>
       <c r="C123" s="38"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="81" t="s">
+      <c r="E123" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="81"/>
-      <c r="G123" s="81"/>
+      <c r="F123" s="84"/>
+      <c r="G123" s="84"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
   <si>
     <t>REMISION</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">ABASTOS DE 4 CARNES 11 SUR </t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -3673,7 +3676,7 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4257,8 +4260,10 @@
         <v>65</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="67"/>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
@@ -4273,8 +4278,10 @@
         <v>66</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="67"/>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
@@ -4283,115 +4290,157 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44516</v>
+      </c>
       <c r="B29" s="13">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="20">
+        <v>4624</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="12">
+        <v>44516</v>
+      </c>
       <c r="B30" s="13">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="20">
+        <v>3512</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="75">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44517</v>
+      </c>
       <c r="B31" s="13">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <v>178470</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>178470</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="12">
+        <v>44517</v>
+      </c>
       <c r="B32" s="13">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20">
+        <v>62080</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62080</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="12">
+        <v>44517</v>
+      </c>
       <c r="B33" s="13">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="20">
+        <v>101</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12">
+        <v>44518</v>
+      </c>
       <c r="B34" s="13">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="20">
+        <v>8588</v>
+      </c>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8588</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="12">
+        <v>44520</v>
+      </c>
       <c r="B35" s="13">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="20">
+        <v>768</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>768</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5687,7 +5736,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>380563</v>
+        <v>638706</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
@@ -5696,7 +5745,7 @@
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>378887</v>
+        <v>637030</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -5740,7 +5789,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="81">
         <f>E117-G117</f>
-        <v>378887</v>
+        <v>637030</v>
       </c>
       <c r="F121" s="82"/>
       <c r="G121" s="83"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC1FC58-07BD-40C7-BAF6-F106944A7726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="10725" activeTab="1"/>
+    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
     <sheet name="REMISIONES   NOVIEMBRE  2021 " sheetId="3" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -784,7 +792,7 @@
         <xdr:cNvPr id="2" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -837,7 +845,7 @@
         <xdr:cNvPr id="3" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -895,7 +903,7 @@
         <xdr:cNvPr id="2" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -948,7 +956,7 @@
         <xdr:cNvPr id="3" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
@@ -3669,14 +3677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5928,7 +5936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 11  NOVIEMBRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC1FC58-07BD-40C7-BAF6-F106944A7726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -172,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
@@ -1256,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
@@ -3677,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -5936,7 +5935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -16,7 +16,7 @@
     <sheet name="REMISIONES   NOVIEMBRE  2021 " sheetId="3" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
   <si>
     <t>REMISION</t>
   </si>
@@ -165,7 +165,7 @@
     <t xml:space="preserve">ABASTOS DE 4 CARNES 11 SUR </t>
   </si>
   <si>
-    <t>x</t>
+    <t>ISRAEL LEDO</t>
   </si>
 </sst>
 </file>
@@ -3682,8 +3682,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4261,39 +4261,47 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44515</v>
+      </c>
       <c r="B27" s="13">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="67"/>
+        <v>18</v>
+      </c>
+      <c r="E27" s="67">
+        <v>3711</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44515</v>
+      </c>
       <c r="B28" s="13">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="67"/>
+        <v>14</v>
+      </c>
+      <c r="E28" s="67">
+        <v>2005</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -4451,174 +4459,244 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12">
+        <v>44523</v>
+      </c>
       <c r="B36" s="13">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="20">
+        <v>1189.81</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1189.81</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="12">
+        <v>44524</v>
+      </c>
       <c r="B37" s="13">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="D37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="20">
+        <v>59045</v>
+      </c>
+      <c r="F37" s="21">
+        <v>44532</v>
+      </c>
+      <c r="G37" s="22">
+        <v>59045</v>
+      </c>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="12">
+        <v>44524</v>
+      </c>
       <c r="B38" s="13">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="20">
+        <v>3655</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12">
+        <v>44524</v>
+      </c>
       <c r="B39" s="13">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>13576</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13576</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="12">
+        <v>44525</v>
+      </c>
       <c r="B40" s="13">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="20">
+        <v>6961</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6961</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="12">
+        <v>44525</v>
+      </c>
       <c r="B41" s="13">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="20">
+        <v>15564</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15564</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="12">
+        <v>44525</v>
+      </c>
       <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="20">
+        <v>2279</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="12">
+        <v>44526</v>
+      </c>
       <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20">
+        <v>8799</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12">
+        <v>44526</v>
+      </c>
       <c r="B44" s="13">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3337</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="23">
+        <v>44526</v>
+      </c>
       <c r="B45" s="13">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
+      <c r="D45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="20">
+        <v>757</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>757</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23">
+        <v>44527</v>
+      </c>
       <c r="B46" s="13">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
+      <c r="D46" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="20">
+        <v>0</v>
+      </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
@@ -4627,14 +4705,20 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="23">
+        <v>44527</v>
+      </c>
       <c r="B47" s="13">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0</v>
+      </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
       <c r="H47" s="18">
@@ -4643,131 +4727,183 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="23">
+        <v>44529</v>
+      </c>
       <c r="B48" s="13">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="20">
+        <v>376</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="23">
+        <v>44529</v>
+      </c>
       <c r="B49" s="13">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20">
+        <v>21811</v>
+      </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21811</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="23">
+        <v>44529</v>
+      </c>
       <c r="B50" s="13">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>126</v>
+      </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
       <c r="H50" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="23">
+        <v>44529</v>
+      </c>
       <c r="B51" s="13">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="D51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="20">
+        <v>53508</v>
+      </c>
+      <c r="F51" s="21">
+        <v>44532</v>
+      </c>
+      <c r="G51" s="22">
+        <v>53508</v>
+      </c>
       <c r="H51" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="23">
+        <v>44529</v>
+      </c>
       <c r="B52" s="13">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
+      <c r="D52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20">
+        <v>86291</v>
+      </c>
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
       <c r="H52" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86291</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="23">
+        <v>44529</v>
+      </c>
       <c r="B53" s="13">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="20">
+        <v>161750</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161750</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="23">
+        <v>44531</v>
+      </c>
       <c r="B54" s="13">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="D54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="20">
+        <v>1421</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="23">
+        <v>44532</v>
+      </c>
       <c r="B55" s="13">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
+      <c r="D55" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="20">
+        <v>3135</v>
+      </c>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
       <c r="H55" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5743,16 +5879,16 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>638706</v>
+        <v>1088002.81</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
         <f>SUM(G4:G116)</f>
-        <v>1676</v>
+        <v>114229</v>
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>637030</v>
+        <v>973773.81</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -5796,7 +5932,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="81">
         <f>E117-G117</f>
-        <v>637030</v>
+        <v>973773.81</v>
       </c>
       <c r="F121" s="82"/>
       <c r="G121" s="83"/>
@@ -5930,7 +6066,8 @@
     <mergeCell ref="E123:G123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
     <sheet name="REMISIONES   NOVIEMBRE  2021 " sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="7" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="8" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="21">
   <si>
     <t>REMISION</t>
   </si>
@@ -331,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -557,12 +566,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,6 +773,73 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -755,6 +849,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF0000FF"/>
@@ -888,13 +983,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -941,13 +1036,124 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5472114" y="27970167"/>
+          <a:ext cx="638173" cy="495298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647703</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4576765" y="27922540"/>
+          <a:ext cx="581022" cy="590546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561977</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1261,8 +1467,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1412,11 +1618,11 @@
         <v>44499</v>
       </c>
       <c r="G7" s="70">
-        <v>7124</v>
+        <v>71124</v>
       </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>64000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2002,11 +2208,11 @@
         <v>44499</v>
       </c>
       <c r="G30" s="70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" s="71">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2118,7 +2324,6 @@
         <v>44498</v>
       </c>
       <c r="B35" s="13">
-        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C35" s="28"/>
@@ -2140,7 +2345,6 @@
         <v>44499</v>
       </c>
       <c r="B36" s="13">
-        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C36" s="24"/>
@@ -2296,7 +2500,6 @@
         <v>44505</v>
       </c>
       <c r="B43" s="13">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C43" s="24"/>
@@ -3489,11 +3692,11 @@
       <c r="F117" s="39"/>
       <c r="G117" s="39">
         <f>SUM(G4:G116)</f>
-        <v>1015538</v>
+        <v>1079536</v>
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>102596</v>
+        <v>38598</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -3537,7 +3740,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="81">
         <f>E117-G117</f>
-        <v>102596</v>
+        <v>38598</v>
       </c>
       <c r="F121" s="82"/>
       <c r="G121" s="83"/>
@@ -3680,10 +3883,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3697,11 +3900,18 @@
     <col min="7" max="7" width="18" style="56" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="13.140625" style="52" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="34.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="55" customWidth="1"/>
+    <col min="17" max="17" width="18" style="56" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="77" t="s">
         <v>17</v>
       </c>
@@ -3711,8 +3921,18 @@
       <c r="F1" s="78"/>
       <c r="G1" s="79"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="K1" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="80" t="s">
         <v>11</v>
@@ -3724,8 +3944,19 @@
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -3749,8 +3980,31 @@
         <v>5</v>
       </c>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44508</v>
       </c>
@@ -3771,12 +4025,32 @@
         <v>1676</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H116" si="0">E4-G4</f>
+        <f t="shared" ref="H4:H71" si="0">E4-G4</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="12">
+        <v>44513</v>
+      </c>
+      <c r="L4" s="13">
+        <v>64</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="15">
+        <v>39216</v>
+      </c>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="18">
+        <f>O4-Q4</f>
+        <v>39216</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44509</v>
       </c>
@@ -3797,13 +4071,36 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="12">
+        <v>44524</v>
+      </c>
+      <c r="L5" s="13">
+        <v>75</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="20">
+        <v>59045</v>
+      </c>
+      <c r="P5" s="21">
+        <v>44532</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>59045</v>
+      </c>
+      <c r="R5" s="18">
+        <f>O5-Q5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44509</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <f t="shared" ref="B6:B64" si="1">B5+1</f>
         <v>44</v>
       </c>
       <c r="C6" s="14"/>
@@ -3819,8 +4116,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="12">
+        <v>44525</v>
+      </c>
+      <c r="L6" s="13">
+        <v>78</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="20">
+        <v>6961</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="18">
+        <f>O6-Q6</f>
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>44509</v>
       </c>
@@ -3841,30 +4157,72 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="K7" s="23">
+        <v>44526</v>
+      </c>
+      <c r="L7" s="13">
+        <v>83</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="20">
+        <v>757</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="18">
+        <f>O7-Q7</f>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="104">
         <v>44509</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="47">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" s="20">
         <v>307</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
-      <c r="H8" s="18">
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="12">
+        <v>44529</v>
+      </c>
+      <c r="L8" s="13">
+        <v>89</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="20">
+        <v>53508</v>
+      </c>
+      <c r="P8" s="21">
+        <v>44532</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>53508</v>
+      </c>
+      <c r="R8" s="18">
+        <f>O8-Q8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44510</v>
       </c>
@@ -3885,8 +4243,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="12">
+        <v>44531</v>
+      </c>
+      <c r="L9" s="13">
+        <v>92</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="20">
+        <v>1421</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="18">
+        <f>O9-Q9</f>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44510</v>
       </c>
@@ -3907,8 +4284,27 @@
         <f t="shared" si="0"/>
         <v>1333</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="12">
+        <v>44534</v>
+      </c>
+      <c r="L10" s="13">
+        <v>98</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="20">
+        <v>519</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="18">
+        <f>O10-Q10</f>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44511</v>
       </c>
@@ -3929,8 +4325,22 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="91">
+        <f>SUM(O4:O10)</f>
+        <v>161427</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="92">
+        <f>SUM(R4:R10)</f>
+        <v>48874</v>
+      </c>
+      <c r="R11" s="93"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44511</v>
       </c>
@@ -3951,8 +4361,16 @@
         <f t="shared" si="0"/>
         <v>2460</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44512</v>
       </c>
@@ -3973,8 +4391,16 @@
         <f t="shared" si="0"/>
         <v>8923</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44512</v>
       </c>
@@ -3995,8 +4421,27 @@
         <f t="shared" si="0"/>
         <v>47911</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="12">
+        <v>44509</v>
+      </c>
+      <c r="L14" s="13">
+        <v>43</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="18">
+        <f>O14-Q14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44512</v>
       </c>
@@ -4017,8 +4462,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="12">
+        <v>44509</v>
+      </c>
+      <c r="L15" s="13">
+        <v>44</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="18">
+        <f>O15-Q15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44512</v>
       </c>
@@ -4039,8 +4503,27 @@
         <f t="shared" si="0"/>
         <v>622</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" s="12">
+        <v>44510</v>
+      </c>
+      <c r="L16" s="13">
+        <v>47</v>
+      </c>
+      <c r="M16" s="25"/>
+      <c r="N16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="18">
+        <f>O16-Q16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44512</v>
       </c>
@@ -4061,8 +4544,27 @@
         <f t="shared" si="0"/>
         <v>10714</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="12">
+        <v>44512</v>
+      </c>
+      <c r="L17" s="13">
+        <v>53</v>
+      </c>
+      <c r="M17" s="88"/>
+      <c r="N17" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="18">
+        <f>O17-Q17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44512</v>
       </c>
@@ -4083,8 +4585,27 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="12">
+        <v>44513</v>
+      </c>
+      <c r="L18" s="13">
+        <v>58</v>
+      </c>
+      <c r="M18" s="89"/>
+      <c r="N18" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="18">
+        <f>O18-Q18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44512</v>
       </c>
@@ -4105,8 +4626,27 @@
         <f t="shared" si="0"/>
         <v>13805</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="12">
+        <v>44513</v>
+      </c>
+      <c r="L19" s="13">
+        <v>61</v>
+      </c>
+      <c r="M19" s="24"/>
+      <c r="N19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="18">
+        <f>O19-Q19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44513</v>
       </c>
@@ -4127,8 +4667,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20" s="12">
+        <v>44527</v>
+      </c>
+      <c r="L20" s="13">
+        <v>84</v>
+      </c>
+      <c r="M20" s="89"/>
+      <c r="N20" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="20">
+        <v>0</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="18">
+        <f>O20-Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44513</v>
       </c>
@@ -4149,8 +4708,27 @@
         <f t="shared" si="0"/>
         <v>18875</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21" s="12">
+        <v>44527</v>
+      </c>
+      <c r="L21" s="13">
+        <v>85</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18">
+        <f>O21-Q21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44513</v>
       </c>
@@ -4171,8 +4749,16 @@
         <f t="shared" si="0"/>
         <v>10476</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44513</v>
       </c>
@@ -4193,8 +4779,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23" s="12">
+        <v>44499</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="20">
+        <v>15657</v>
+      </c>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="18">
+        <f t="shared" ref="R23:R29" si="2">O23-Q23</f>
+        <v>15657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44513</v>
       </c>
@@ -4215,8 +4820,27 @@
         <f t="shared" si="0"/>
         <v>219644</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="12">
+        <v>44500</v>
+      </c>
+      <c r="L24" s="13">
+        <v>3</v>
+      </c>
+      <c r="M24" s="24"/>
+      <c r="N24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="20">
+        <v>8585</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="18">
+        <f t="shared" si="2"/>
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44513</v>
       </c>
@@ -4237,8 +4861,27 @@
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25" s="12">
+        <v>44501</v>
+      </c>
+      <c r="L25" s="13">
+        <v>4</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="20">
+        <v>259</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="18">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44513</v>
       </c>
@@ -4259,8 +4902,27 @@
         <f t="shared" si="0"/>
         <v>39216</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26" s="12">
+        <v>44502</v>
+      </c>
+      <c r="L26" s="13">
+        <v>5</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="20">
+        <v>8605</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="18">
+        <f t="shared" si="2"/>
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44515</v>
       </c>
@@ -4281,8 +4943,27 @@
         <f t="shared" si="0"/>
         <v>3711</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K27" s="12">
+        <v>44503</v>
+      </c>
+      <c r="L27" s="13">
+        <v>6</v>
+      </c>
+      <c r="M27" s="24"/>
+      <c r="N27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="20">
+        <v>235</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="18">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44515</v>
       </c>
@@ -4303,8 +4984,27 @@
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28" s="12">
+        <v>44505</v>
+      </c>
+      <c r="L28" s="13">
+        <v>8</v>
+      </c>
+      <c r="M28" s="24"/>
+      <c r="N28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="20">
+        <v>784</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="18">
+        <f t="shared" si="2"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44516</v>
       </c>
@@ -4325,8 +5025,31 @@
         <f t="shared" si="0"/>
         <v>4624</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29" s="12">
+        <v>44508</v>
+      </c>
+      <c r="L29" s="13">
+        <v>42</v>
+      </c>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" s="20">
+        <v>1676</v>
+      </c>
+      <c r="P29" s="21">
+        <v>44508</v>
+      </c>
+      <c r="Q29" s="22">
+        <v>1676</v>
+      </c>
+      <c r="R29" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44516</v>
       </c>
@@ -4347,8 +5070,27 @@
         <f t="shared" si="0"/>
         <v>3512</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30" s="12">
+        <v>44509</v>
+      </c>
+      <c r="L30" s="13">
+        <v>45</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="20">
+        <v>120</v>
+      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="18">
+        <f>O30-Q30</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44517</v>
       </c>
@@ -4369,13 +5111,25 @@
         <f t="shared" si="0"/>
         <v>178470</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="99">
+        <v>0</v>
+      </c>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44517</v>
       </c>
       <c r="B32" s="13">
-        <f t="shared" si="1"/>
+        <f>B31+1</f>
         <v>70</v>
       </c>
       <c r="C32" s="24"/>
@@ -4391,8 +5145,27 @@
         <f t="shared" si="0"/>
         <v>62080</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32" s="12">
+        <v>44510</v>
+      </c>
+      <c r="L32" s="13">
+        <v>48</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="20">
+        <v>1333</v>
+      </c>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="18">
+        <f>O32-Q32</f>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44517</v>
       </c>
@@ -4413,8 +5186,27 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33" s="12">
+        <v>44511</v>
+      </c>
+      <c r="L33" s="13">
+        <v>50</v>
+      </c>
+      <c r="M33" s="24"/>
+      <c r="N33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" s="20">
+        <v>2460</v>
+      </c>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="18">
+        <f>O33-Q33</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>44518</v>
       </c>
@@ -4435,8 +5227,27 @@
         <f t="shared" si="0"/>
         <v>8588</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K34" s="12">
+        <v>44512</v>
+      </c>
+      <c r="L34" s="13">
+        <v>52</v>
+      </c>
+      <c r="M34" s="24"/>
+      <c r="N34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="20">
+        <v>47911</v>
+      </c>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="18">
+        <f>O34-Q34</f>
+        <v>47911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>44520</v>
       </c>
@@ -4457,8 +5268,27 @@
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K35" s="12">
+        <v>44512</v>
+      </c>
+      <c r="L35" s="13">
+        <v>54</v>
+      </c>
+      <c r="M35" s="24"/>
+      <c r="N35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="20">
+        <v>622</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="18">
+        <f>O35-Q35</f>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>44523</v>
       </c>
@@ -4479,8 +5309,27 @@
         <f t="shared" si="0"/>
         <v>1189.81</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="12">
+        <v>44512</v>
+      </c>
+      <c r="L36" s="13">
+        <v>55</v>
+      </c>
+      <c r="M36" s="88"/>
+      <c r="N36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" s="20">
+        <v>10714</v>
+      </c>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="18">
+        <f>O36-Q36</f>
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>44524</v>
       </c>
@@ -4505,8 +5354,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="12">
+        <v>44512</v>
+      </c>
+      <c r="L37" s="13">
+        <v>56</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" s="20">
+        <v>1785</v>
+      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="18">
+        <f>O37-Q37</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>44524</v>
       </c>
@@ -4527,8 +5395,27 @@
         <f t="shared" si="0"/>
         <v>3655</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="12">
+        <v>44512</v>
+      </c>
+      <c r="L38" s="13">
+        <v>57</v>
+      </c>
+      <c r="M38" s="88"/>
+      <c r="N38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" s="20">
+        <v>13805</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="18">
+        <f>O38-Q38</f>
+        <v>13805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>44524</v>
       </c>
@@ -4549,8 +5436,27 @@
         <f t="shared" si="0"/>
         <v>13576</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" s="12">
+        <v>44513</v>
+      </c>
+      <c r="L39" s="13">
+        <v>62</v>
+      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" s="20">
+        <v>219644</v>
+      </c>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="18">
+        <f>O39-Q39</f>
+        <v>219644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>44525</v>
       </c>
@@ -4571,8 +5477,27 @@
         <f t="shared" si="0"/>
         <v>6961</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="12">
+        <v>44513</v>
+      </c>
+      <c r="L40" s="13">
+        <v>63</v>
+      </c>
+      <c r="M40" s="24"/>
+      <c r="N40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" s="20">
+        <v>2546</v>
+      </c>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="18">
+        <f>O40-Q40</f>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>44525</v>
       </c>
@@ -4593,8 +5518,27 @@
         <f t="shared" si="0"/>
         <v>15564</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="12">
+        <v>44515</v>
+      </c>
+      <c r="L41" s="13">
+        <v>65</v>
+      </c>
+      <c r="M41" s="24"/>
+      <c r="N41" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="67">
+        <v>3711</v>
+      </c>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="18">
+        <f>O41-Q41</f>
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>44525</v>
       </c>
@@ -4615,8 +5559,27 @@
         <f t="shared" si="0"/>
         <v>2279</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K42" s="12">
+        <v>44516</v>
+      </c>
+      <c r="L42" s="13">
+        <v>67</v>
+      </c>
+      <c r="M42" s="24"/>
+      <c r="N42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" s="20">
+        <v>4624</v>
+      </c>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="18">
+        <f>O42-Q42</f>
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>44526</v>
       </c>
@@ -4637,8 +5600,27 @@
         <f t="shared" si="0"/>
         <v>8799</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="12">
+        <v>44517</v>
+      </c>
+      <c r="L43" s="13">
+        <v>69</v>
+      </c>
+      <c r="M43" s="24"/>
+      <c r="N43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43" s="20">
+        <v>178470</v>
+      </c>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="18">
+        <f>O43-Q43</f>
+        <v>178470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>44526</v>
       </c>
@@ -4659,8 +5641,27 @@
         <f t="shared" si="0"/>
         <v>3337</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K44" s="12">
+        <v>44517</v>
+      </c>
+      <c r="L44" s="13">
+        <v>70</v>
+      </c>
+      <c r="M44" s="24"/>
+      <c r="N44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44" s="20">
+        <v>62080</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="18">
+        <f>O44-Q44</f>
+        <v>62080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>44526</v>
       </c>
@@ -4681,8 +5682,27 @@
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45" s="12">
+        <v>44517</v>
+      </c>
+      <c r="L45" s="13">
+        <v>71</v>
+      </c>
+      <c r="M45" s="24"/>
+      <c r="N45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45" s="20">
+        <v>101</v>
+      </c>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="18">
+        <f>O45-Q45</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>44527</v>
       </c>
@@ -4703,8 +5723,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="12">
+        <v>44518</v>
+      </c>
+      <c r="L46" s="13">
+        <v>72</v>
+      </c>
+      <c r="M46" s="27"/>
+      <c r="N46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" s="20">
+        <v>8588</v>
+      </c>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="18">
+        <f>O46-Q46</f>
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>44527</v>
       </c>
@@ -4725,8 +5764,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="12">
+        <v>44520</v>
+      </c>
+      <c r="L47" s="13">
+        <v>73</v>
+      </c>
+      <c r="M47" s="28"/>
+      <c r="N47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47" s="20">
+        <v>768</v>
+      </c>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="18">
+        <f>O47-Q47</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>44529</v>
       </c>
@@ -4747,8 +5805,27 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48" s="12">
+        <v>44524</v>
+      </c>
+      <c r="L48" s="13">
+        <v>77</v>
+      </c>
+      <c r="M48" s="24"/>
+      <c r="N48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48" s="20">
+        <v>13576</v>
+      </c>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="18">
+        <f>O48-Q48</f>
+        <v>13576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>44529</v>
       </c>
@@ -4769,8 +5846,27 @@
         <f t="shared" si="0"/>
         <v>21811</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="12">
+        <v>44526</v>
+      </c>
+      <c r="L49" s="13">
+        <v>81</v>
+      </c>
+      <c r="M49" s="24"/>
+      <c r="N49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49" s="20">
+        <v>8799</v>
+      </c>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="18">
+        <f>O49-Q49</f>
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>44529</v>
       </c>
@@ -4791,8 +5887,27 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="12">
+        <v>44529</v>
+      </c>
+      <c r="L50" s="13">
+        <v>86</v>
+      </c>
+      <c r="M50" s="24"/>
+      <c r="N50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50" s="20">
+        <v>376</v>
+      </c>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="18">
+        <f>O50-Q50</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>44529</v>
       </c>
@@ -4817,8 +5932,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="12">
+        <v>44529</v>
+      </c>
+      <c r="L51" s="13">
+        <v>87</v>
+      </c>
+      <c r="M51" s="24"/>
+      <c r="N51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51" s="20">
+        <v>21811</v>
+      </c>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="18">
+        <f>O51-Q51</f>
+        <v>21811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>44529</v>
       </c>
@@ -4839,8 +5973,27 @@
         <f t="shared" si="0"/>
         <v>86291</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="12">
+        <v>44529</v>
+      </c>
+      <c r="L52" s="13">
+        <v>88</v>
+      </c>
+      <c r="M52" s="24"/>
+      <c r="N52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52" s="20">
+        <v>126</v>
+      </c>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="18">
+        <f>O52-Q52</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>44529</v>
       </c>
@@ -4861,8 +6014,27 @@
         <f t="shared" si="0"/>
         <v>161750</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="12">
+        <v>44529</v>
+      </c>
+      <c r="L53" s="13">
+        <v>90</v>
+      </c>
+      <c r="M53" s="24"/>
+      <c r="N53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53" s="20">
+        <v>86291</v>
+      </c>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="18">
+        <f>O53-Q53</f>
+        <v>86291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>44531</v>
       </c>
@@ -4883,8 +6055,27 @@
         <f t="shared" si="0"/>
         <v>1421</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="12">
+        <v>44529</v>
+      </c>
+      <c r="L54" s="13">
+        <v>91</v>
+      </c>
+      <c r="M54" s="24"/>
+      <c r="N54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54" s="20">
+        <v>161750</v>
+      </c>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="18">
+        <f>O54-Q54</f>
+        <v>161750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>44532</v>
       </c>
@@ -4905,1165 +6096,1217 @@
         <f t="shared" si="0"/>
         <v>3135</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="K55" s="23">
+        <v>44533</v>
+      </c>
+      <c r="L55" s="13">
+        <v>94</v>
+      </c>
+      <c r="M55" s="24"/>
+      <c r="N55" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55" s="20">
+        <v>617</v>
+      </c>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="18">
+        <f>O55-Q55</f>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>44533</v>
+      </c>
       <c r="B56" s="13">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
+      <c r="D56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="20">
+        <v>617</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
       <c r="H56" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+        <v>617</v>
+      </c>
+      <c r="K56" s="23">
+        <v>44534</v>
+      </c>
+      <c r="L56" s="13">
+        <v>97</v>
+      </c>
+      <c r="M56" s="24"/>
+      <c r="N56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56" s="20">
+        <v>50957</v>
+      </c>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="18">
+        <f>O56-Q56</f>
+        <v>50957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>44533</v>
+      </c>
       <c r="B57" s="13">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="D57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="20">
+        <v>1409</v>
+      </c>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
       <c r="H57" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+        <v>1409</v>
+      </c>
+      <c r="K57" s="23">
+        <v>44534</v>
+      </c>
+      <c r="L57" s="13">
+        <v>99</v>
+      </c>
+      <c r="M57" s="24"/>
+      <c r="N57" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57" s="20">
+        <v>12005</v>
+      </c>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="18">
+        <f>O57-Q57</f>
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>44533</v>
+      </c>
       <c r="B58" s="13">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="D58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="20">
+        <v>806</v>
+      </c>
       <c r="F58" s="21"/>
       <c r="G58" s="22"/>
       <c r="H58" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+        <v>806</v>
+      </c>
+      <c r="K58" s="23">
+        <v>44534</v>
+      </c>
+      <c r="L58" s="13">
+        <v>100</v>
+      </c>
+      <c r="M58" s="24"/>
+      <c r="N58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58" s="20">
+        <v>115785</v>
+      </c>
+      <c r="P58" s="21">
+        <v>44506</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>1065501.8999999999</v>
+      </c>
+      <c r="R58" s="18">
+        <f>O58-Q58</f>
+        <v>-949716.89999999991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>44534</v>
+      </c>
       <c r="B59" s="13">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
+      <c r="D59" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="20">
+        <v>50957</v>
+      </c>
       <c r="F59" s="21"/>
       <c r="G59" s="22"/>
       <c r="H59" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+        <v>50957</v>
+      </c>
+      <c r="K59" s="23">
+        <v>44535</v>
+      </c>
+      <c r="L59" s="13">
+        <v>102</v>
+      </c>
+      <c r="M59" s="24"/>
+      <c r="N59" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" s="99">
+        <v>12020</v>
+      </c>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="103"/>
+      <c r="R59" s="101">
+        <f>O59-Q59</f>
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>44534</v>
+      </c>
       <c r="B60" s="13">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="D60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="20">
+        <v>519</v>
+      </c>
       <c r="F60" s="21"/>
       <c r="G60" s="22"/>
       <c r="H60" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+        <v>519</v>
+      </c>
+      <c r="K60" s="23"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="91">
+        <f>SUM(O14:O59)</f>
+        <v>1079196</v>
+      </c>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="97">
+        <f>SUM(R23:R59)</f>
+        <v>12018.100000000093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>44534</v>
+      </c>
       <c r="B61" s="13">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C61" s="24"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
+      <c r="D61" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="20">
+        <v>12005</v>
+      </c>
       <c r="F61" s="21"/>
       <c r="G61" s="22"/>
       <c r="H61" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+        <v>12005</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>44534</v>
+      </c>
       <c r="B62" s="13">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C62" s="24"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
+      <c r="D62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="20">
+        <v>115785</v>
+      </c>
       <c r="F62" s="21"/>
       <c r="G62" s="22"/>
       <c r="H62" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+        <v>115785</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="18"/>
+    </row>
+    <row r="63" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>44534</v>
+      </c>
       <c r="B63" s="13">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C63" s="24"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
+      <c r="D63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="20">
+        <v>4289</v>
+      </c>
       <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
+      <c r="G63" s="22">
+        <v>0</v>
+      </c>
       <c r="H63" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+        <v>4289</v>
+      </c>
+      <c r="K63" s="23"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="18"/>
+    </row>
+    <row r="64" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>44535</v>
+      </c>
       <c r="B64" s="13">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C64" s="24"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
+      <c r="D64" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="20">
+        <v>12020</v>
+      </c>
       <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
+      <c r="G64" s="22">
+        <v>0</v>
+      </c>
       <c r="H64" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12020</v>
+      </c>
+      <c r="K64" s="23">
+        <v>44532</v>
+      </c>
+      <c r="L64" s="13">
+        <v>93</v>
+      </c>
+      <c r="M64" s="24"/>
+      <c r="N64" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="20">
+        <v>3135</v>
+      </c>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="18">
+        <f>O64-Q64</f>
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
-      <c r="B65" s="13">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
+      <c r="B65" s="13"/>
       <c r="C65" s="24"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="61">
+        <v>44536</v>
+      </c>
+      <c r="G65" s="62">
+        <v>1065501.8999999999</v>
+      </c>
       <c r="H65" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="106"/>
+    </row>
+    <row r="66" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
-      <c r="B66" s="13">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
+      <c r="B66" s="13"/>
       <c r="C66" s="24"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61">
+        <v>44536</v>
+      </c>
+      <c r="G66" s="62">
+        <v>81250.19</v>
+      </c>
       <c r="H66" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="106"/>
+    </row>
+    <row r="67" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
-      <c r="B67" s="13">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
+      <c r="B67" s="13"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="62"/>
       <c r="H67" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <v>44498</v>
+      </c>
+      <c r="L67" s="13">
+        <v>32</v>
+      </c>
+      <c r="M67" s="28"/>
+      <c r="N67" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O67" s="20">
+        <v>2515</v>
+      </c>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="18">
+        <f t="shared" ref="R67:R71" si="3">O67-Q67</f>
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
-      <c r="B68" s="13">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
+      <c r="B68" s="13"/>
       <c r="C68" s="24"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="62"/>
       <c r="H68" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K68" s="12">
+        <v>44499</v>
+      </c>
+      <c r="L68" s="13">
+        <v>33</v>
+      </c>
+      <c r="M68" s="24"/>
+      <c r="N68" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O68" s="20">
+        <v>340</v>
+      </c>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="18">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
-      <c r="B69" s="13">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
+      <c r="B69" s="13"/>
       <c r="C69" s="24"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="62"/>
       <c r="H69" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <v>44505</v>
+      </c>
+      <c r="L69" s="13">
+        <v>40</v>
+      </c>
+      <c r="M69" s="24"/>
+      <c r="N69" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O69" s="20">
+        <v>1618</v>
+      </c>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="18">
+        <f t="shared" si="3"/>
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
-      <c r="B70" s="13">
-        <f t="shared" ref="B70:B112" si="2">B69+1</f>
-        <v>108</v>
-      </c>
+      <c r="B70" s="13"/>
       <c r="C70" s="24"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="62"/>
       <c r="H70" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="13">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="13">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="13">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="13">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="13">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="13">
-        <f t="shared" si="2"/>
-        <v>114</v>
-      </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="13">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="13">
-        <f t="shared" si="2"/>
-        <v>116</v>
-      </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="13">
-        <f t="shared" si="2"/>
-        <v>117</v>
-      </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="13">
-        <f t="shared" si="2"/>
-        <v>118</v>
-      </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="13">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="13">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="13">
-        <f t="shared" si="2"/>
-        <v>121</v>
-      </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="13">
-        <f t="shared" si="2"/>
-        <v>122</v>
-      </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="13">
-        <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="13">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="13">
-        <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="13">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="13">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="13">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="13">
-        <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="13">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="13">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="13">
-        <f t="shared" si="2"/>
-        <v>132</v>
-      </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="13">
-        <f t="shared" si="2"/>
-        <v>133</v>
-      </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="13">
-        <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="13">
-        <f t="shared" si="2"/>
-        <v>135</v>
-      </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="13">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="13">
-        <f t="shared" si="2"/>
-        <v>137</v>
-      </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="13">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="13">
-        <f t="shared" si="2"/>
-        <v>139</v>
-      </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="13">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="13">
-        <f t="shared" si="2"/>
-        <v>141</v>
-      </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="13">
-        <f t="shared" si="2"/>
-        <v>142</v>
-      </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="13">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="13">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="13">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="13">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="13">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="13">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="13">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="13">
-        <f t="shared" si="2"/>
+      <c r="K70" s="104">
+        <v>44509</v>
+      </c>
+      <c r="L70" s="47">
+        <f t="shared" ref="L70" si="4">L69+1</f>
+        <v>41</v>
+      </c>
+      <c r="M70" s="105"/>
+      <c r="N70" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="O70" s="20">
+        <v>307</v>
+      </c>
+      <c r="R70" s="18">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="34">
+        <v>0</v>
+      </c>
+      <c r="F71" s="35"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="K71" s="23">
+        <v>44511</v>
+      </c>
+      <c r="L71" s="13">
+        <v>49</v>
+      </c>
+      <c r="M71" s="14"/>
+      <c r="N71" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O71" s="20">
         <v>150</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="31"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="34">
-        <v>0</v>
-      </c>
-      <c r="F116" s="35"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="37"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="39">
-        <f>SUM(E4:E116)</f>
-        <v>1088002.81</v>
-      </c>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39">
-        <f>SUM(G4:G116)</f>
-        <v>114229</v>
-      </c>
-      <c r="H117" s="40">
-        <f>SUM(H4:H116)</f>
-        <v>973773.81</v>
-      </c>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B118" s="37"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B119" s="37"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="45" t="s">
+      <c r="P71" s="21"/>
+      <c r="Q71" s="22"/>
+      <c r="R71" s="18">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="39">
+        <f>SUM(E4:E71)</f>
+        <v>1286409.81</v>
+      </c>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39">
+        <f>SUM(G4:G71)</f>
+        <v>1260981.0899999999</v>
+      </c>
+      <c r="H72" s="40">
+        <f>SUM(H4:H71)</f>
+        <v>1172180.81</v>
+      </c>
+      <c r="I72" s="2"/>
+      <c r="K72" s="23">
+        <v>44512</v>
+      </c>
+      <c r="L72" s="13">
+        <v>51</v>
+      </c>
+      <c r="M72" s="88"/>
+      <c r="N72" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O72" s="20">
+        <v>8923</v>
+      </c>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="18">
+        <f>O72-Q72</f>
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="37"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="2"/>
+      <c r="K73" s="23">
+        <v>44513</v>
+      </c>
+      <c r="L73" s="13">
+        <v>59</v>
+      </c>
+      <c r="M73" s="24"/>
+      <c r="N73" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O73" s="20">
+        <v>18875</v>
+      </c>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="22"/>
+      <c r="R73" s="18">
+        <f>O73-Q73</f>
+        <v>18875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="37"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F119" s="42"/>
-      <c r="G119" s="46" t="s">
+      <c r="F74" s="42"/>
+      <c r="G74" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="44"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="37"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B121" s="37"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="81">
-        <f>E117-G117</f>
-        <v>973773.81</v>
-      </c>
-      <c r="F121" s="82"/>
-      <c r="G121" s="83"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B122" s="37"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="43"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B123" s="37"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="84" t="s">
+      <c r="H74" s="44"/>
+      <c r="I74" s="2"/>
+      <c r="K74" s="23">
+        <v>44513</v>
+      </c>
+      <c r="L74" s="13">
+        <v>60</v>
+      </c>
+      <c r="M74" s="24"/>
+      <c r="N74" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O74" s="20">
+        <v>10476</v>
+      </c>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="18">
+        <f>O74-Q74</f>
+        <v>10476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="2"/>
+      <c r="K75" s="23">
+        <v>44515</v>
+      </c>
+      <c r="L75" s="13">
+        <v>66</v>
+      </c>
+      <c r="M75" s="24"/>
+      <c r="N75" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="O75" s="67">
+        <v>2005</v>
+      </c>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="18">
+        <f>O75-Q75</f>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="37"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="81">
+        <f>E72-G72</f>
+        <v>25428.720000000205</v>
+      </c>
+      <c r="F76" s="82"/>
+      <c r="G76" s="83"/>
+      <c r="I76" s="2"/>
+      <c r="K76" s="23">
+        <v>44516</v>
+      </c>
+      <c r="L76" s="13">
+        <v>68</v>
+      </c>
+      <c r="M76" s="24"/>
+      <c r="N76" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O76" s="20">
+        <v>3512</v>
+      </c>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="18">
+        <f>O76-Q76</f>
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="37"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="43"/>
+      <c r="I77" s="2"/>
+      <c r="K77" s="23">
+        <v>44523</v>
+      </c>
+      <c r="L77" s="13">
+        <v>74</v>
+      </c>
+      <c r="M77" s="24"/>
+      <c r="N77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O77" s="20">
+        <v>1189.81</v>
+      </c>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="18">
+        <f>O77-Q77</f>
+        <v>1189.81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B78" s="37"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="84"/>
-      <c r="G123" s="84"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B124" s="37"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="43"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="30"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="50"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B126" s="37"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="43"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B127" s="37"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="42"/>
-      <c r="G127" s="43"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B128" s="37"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="43"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B129" s="37"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="43"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="37"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="42"/>
-      <c r="G130" s="43"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="37"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="43"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="37"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="43"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="37"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="43"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="37"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="42"/>
-      <c r="G134" s="43"/>
-      <c r="I134" s="2"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="I78" s="2"/>
+      <c r="K78" s="23">
+        <v>44524</v>
+      </c>
+      <c r="L78" s="13">
+        <v>76</v>
+      </c>
+      <c r="M78" s="24"/>
+      <c r="N78" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="O78" s="20">
+        <v>3655</v>
+      </c>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="18">
+        <f>O78-Q78</f>
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="37"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="43"/>
+      <c r="I79" s="2"/>
+      <c r="K79" s="23">
+        <v>44525</v>
+      </c>
+      <c r="L79" s="13">
+        <v>79</v>
+      </c>
+      <c r="M79" s="24"/>
+      <c r="N79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O79" s="20">
+        <v>15564</v>
+      </c>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="22"/>
+      <c r="R79" s="18">
+        <f>O79-Q79</f>
+        <v>15564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="30"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="50"/>
+      <c r="I80" s="2"/>
+      <c r="K80" s="23">
+        <v>44525</v>
+      </c>
+      <c r="L80" s="13">
+        <v>80</v>
+      </c>
+      <c r="M80" s="24"/>
+      <c r="N80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O80" s="20">
+        <v>2279</v>
+      </c>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="18">
+        <f>O80-Q80</f>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="37"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="43"/>
+      <c r="I81" s="2"/>
+      <c r="K81" s="23">
+        <v>44526</v>
+      </c>
+      <c r="L81" s="13">
+        <v>82</v>
+      </c>
+      <c r="M81" s="24"/>
+      <c r="N81" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O81" s="20">
+        <v>3337</v>
+      </c>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="18">
+        <f>O81-Q81</f>
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="37"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="43"/>
+      <c r="I82" s="2"/>
+      <c r="K82" s="23">
+        <v>44533</v>
+      </c>
+      <c r="L82" s="13">
+        <v>95</v>
+      </c>
+      <c r="M82" s="24"/>
+      <c r="N82" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O82" s="20">
+        <v>1409</v>
+      </c>
+      <c r="P82" s="21"/>
+      <c r="Q82" s="22"/>
+      <c r="R82" s="18">
+        <f>O82-Q82</f>
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="43"/>
+      <c r="I83" s="2"/>
+      <c r="K83" s="23">
+        <v>44533</v>
+      </c>
+      <c r="L83" s="13">
+        <v>96</v>
+      </c>
+      <c r="M83" s="24"/>
+      <c r="N83" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O83" s="20">
+        <v>806</v>
+      </c>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="18">
+        <f>O83-Q83</f>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="43"/>
+      <c r="I84" s="2"/>
+      <c r="K84" s="23">
+        <v>44534</v>
+      </c>
+      <c r="L84" s="13">
+        <v>101</v>
+      </c>
+      <c r="M84" s="24"/>
+      <c r="N84" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O84" s="20">
+        <v>4289</v>
+      </c>
+      <c r="P84" s="21">
+        <v>44536</v>
+      </c>
+      <c r="Q84" s="22">
+        <v>81250.19</v>
+      </c>
+      <c r="R84" s="18">
+        <f>O84-Q84</f>
+        <v>-76961.19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
+      <c r="I85" s="2"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="50">
+        <f>SUM(O71:O84)</f>
+        <v>76469.81</v>
+      </c>
+      <c r="P85" s="61"/>
+      <c r="R85" s="107">
+        <f>SUM(R67:R84)</f>
+        <v>-0.38000000000465661</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="43"/>
+      <c r="I86" s="2"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="34">
+        <v>0</v>
+      </c>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="36"/>
+      <c r="R86" s="18">
+        <f t="shared" ref="R71:R88" si="5">O86-Q86</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="43"/>
+      <c r="I87" s="2"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="38"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="39">
+        <f>SUM(O4:O86)</f>
+        <v>2642100.62</v>
+      </c>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39">
+        <f>SUM(Q4:Q86)</f>
+        <v>1309855.0899999999</v>
+      </c>
+      <c r="R87" s="18"/>
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="43"/>
+      <c r="I88" s="2"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="43"/>
+      <c r="R88" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="43"/>
+      <c r="I89" s="2"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="38"/>
+      <c r="N89" s="108"/>
+      <c r="O89" s="109"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="111"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L90" s="37"/>
+      <c r="M90" s="38"/>
+      <c r="N90" s="108"/>
+      <c r="O90" s="109"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="111"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="2"/>
+    </row>
+    <row r="91" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="L91" s="37"/>
+      <c r="M91" s="38"/>
+      <c r="N91" s="108"/>
+      <c r="O91" s="112"/>
+      <c r="P91" s="112"/>
+      <c r="Q91" s="112"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="2"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L92" s="37"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="108"/>
+      <c r="O92" s="113"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="114"/>
+      <c r="S92" s="2"/>
+    </row>
+    <row r="93" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L93" s="37"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="108"/>
+      <c r="O93" s="115"/>
+      <c r="P93" s="115"/>
+      <c r="Q93" s="115"/>
+      <c r="S93" s="2"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L94" s="37"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="108"/>
+      <c r="O94" s="113"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="114"/>
+      <c r="S94" s="2"/>
+    </row>
+    <row r="95" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K95" s="30"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="50"/>
+      <c r="S95" s="2"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="L96" s="37"/>
+      <c r="M96" s="38"/>
+      <c r="N96" s="108"/>
+      <c r="O96" s="113"/>
+      <c r="P96" s="110"/>
+      <c r="Q96" s="114"/>
+      <c r="S96" s="2"/>
+    </row>
+    <row r="97" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L97" s="37"/>
+      <c r="M97" s="38"/>
+      <c r="N97" s="108"/>
+      <c r="O97" s="113"/>
+      <c r="P97" s="110"/>
+      <c r="Q97" s="114"/>
+      <c r="S97" s="2"/>
+    </row>
+    <row r="98" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L98" s="37"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="108"/>
+      <c r="O98" s="113"/>
+      <c r="P98" s="110"/>
+      <c r="Q98" s="114"/>
+      <c r="S98" s="2"/>
+    </row>
+    <row r="99" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L99" s="37"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="43"/>
+      <c r="S99" s="2"/>
+    </row>
+    <row r="100" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L100" s="37"/>
+      <c r="M100" s="38"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="42"/>
+      <c r="Q100" s="43"/>
+      <c r="S100" s="2"/>
+    </row>
+    <row r="101" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L101" s="37"/>
+      <c r="M101" s="38"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="42"/>
+      <c r="Q101" s="43"/>
+      <c r="S101" s="2"/>
+    </row>
+    <row r="102" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L102" s="37"/>
+      <c r="M102" s="38"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="42"/>
+      <c r="Q102" s="43"/>
+      <c r="S102" s="2"/>
+    </row>
+    <row r="103" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L103" s="37"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="42"/>
+      <c r="Q103" s="43"/>
+      <c r="S103" s="2"/>
+    </row>
+    <row r="104" spans="12:19" x14ac:dyDescent="0.25">
+      <c r="L104" s="37"/>
+      <c r="M104" s="38"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="43"/>
+      <c r="S104" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O93:Q93"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6081,4 +7324,1886 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="18" style="56" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>44513</v>
+      </c>
+      <c r="B4" s="13">
+        <v>64</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15">
+        <v>39216</v>
+      </c>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="18">
+        <f>E4-G4</f>
+        <v>39216</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>44524</v>
+      </c>
+      <c r="B5" s="13">
+        <v>75</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20">
+        <v>59045</v>
+      </c>
+      <c r="F5" s="21">
+        <v>44532</v>
+      </c>
+      <c r="G5" s="22">
+        <v>59045</v>
+      </c>
+      <c r="H5" s="18">
+        <f>E5-G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44525</v>
+      </c>
+      <c r="B6" s="13">
+        <v>78</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20">
+        <v>6961</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18">
+        <f>E6-G6</f>
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>44526</v>
+      </c>
+      <c r="B7" s="13">
+        <v>83</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="20">
+        <v>757</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="18">
+        <f>E7-G7</f>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>44529</v>
+      </c>
+      <c r="B8" s="13">
+        <v>89</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="20">
+        <v>53508</v>
+      </c>
+      <c r="F8" s="21">
+        <v>44532</v>
+      </c>
+      <c r="G8" s="22">
+        <v>53508</v>
+      </c>
+      <c r="H8" s="18">
+        <f>E8-G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>44531</v>
+      </c>
+      <c r="B9" s="13">
+        <v>92</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1421</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18">
+        <f>E9-G9</f>
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>44534</v>
+      </c>
+      <c r="B10" s="13">
+        <v>98</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="20">
+        <v>519</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="18">
+        <f>E10-G10</f>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="91">
+        <f>SUM(E4:E10)</f>
+        <v>161427</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="92">
+        <f>SUM(H4:H10)</f>
+        <v>48874</v>
+      </c>
+      <c r="H11" s="93"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B14" s="13">
+        <v>43</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="18">
+        <f>E14-G14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B15" s="13">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="18">
+        <f>E15-G15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>44510</v>
+      </c>
+      <c r="B16" s="13">
+        <v>47</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="18">
+        <f>E16-G16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44512</v>
+      </c>
+      <c r="B17" s="13">
+        <v>53</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="18">
+        <f>E17-G17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44513</v>
+      </c>
+      <c r="B18" s="13">
+        <v>58</v>
+      </c>
+      <c r="C18" s="89"/>
+      <c r="D18" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="18">
+        <f>E18-G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44513</v>
+      </c>
+      <c r="B19" s="13">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="20">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="18">
+        <f>E19-G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44527</v>
+      </c>
+      <c r="B20" s="13">
+        <v>84</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="18">
+        <f>E20-G20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44527</v>
+      </c>
+      <c r="B21" s="13">
+        <v>85</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18">
+        <f>E21-G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44499</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="20">
+        <v>15657</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="18">
+        <f t="shared" ref="H22:H29" si="0">E23-G23</f>
+        <v>15657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44500</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="20">
+        <v>8585</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="18">
+        <f t="shared" si="0"/>
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>44501</v>
+      </c>
+      <c r="B25" s="13">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="20">
+        <v>259</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="18">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>44502</v>
+      </c>
+      <c r="B26" s="13">
+        <v>5</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="20">
+        <v>8605</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="18">
+        <f t="shared" si="0"/>
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44503</v>
+      </c>
+      <c r="B27" s="13">
+        <v>6</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="20">
+        <v>235</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="18">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44505</v>
+      </c>
+      <c r="B28" s="13">
+        <v>8</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="20">
+        <v>784</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="18">
+        <f t="shared" si="0"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>44508</v>
+      </c>
+      <c r="B29" s="13">
+        <v>42</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1676</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44508</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1676</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B30" s="13">
+        <v>45</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="20">
+        <v>120</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="18">
+        <f>E30-G30</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44509</v>
+      </c>
+      <c r="B31" s="13">
+        <v>46</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="99">
+        <v>307</v>
+      </c>
+      <c r="F31" s="100"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="101">
+        <f>E31-G31</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>44510</v>
+      </c>
+      <c r="B32" s="13">
+        <v>48</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1333</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="18">
+        <f>E32-G32</f>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>44511</v>
+      </c>
+      <c r="B33" s="13">
+        <v>50</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="20">
+        <v>2460</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="18">
+        <f>E33-G33</f>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>44512</v>
+      </c>
+      <c r="B34" s="13">
+        <v>52</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="20">
+        <v>47911</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="18">
+        <f>E34-G34</f>
+        <v>47911</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>44512</v>
+      </c>
+      <c r="B35" s="13">
+        <v>54</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="20">
+        <v>622</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="18">
+        <f>E35-G35</f>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>44512</v>
+      </c>
+      <c r="B36" s="13">
+        <v>55</v>
+      </c>
+      <c r="C36" s="88"/>
+      <c r="D36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="20">
+        <v>10714</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
+        <f>E36-G36</f>
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>44512</v>
+      </c>
+      <c r="B37" s="13">
+        <v>56</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="20">
+        <v>1785</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="18">
+        <f>E37-G37</f>
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>44512</v>
+      </c>
+      <c r="B38" s="13">
+        <v>57</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="20">
+        <v>13805</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="18">
+        <f>E38-G38</f>
+        <v>13805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>44513</v>
+      </c>
+      <c r="B39" s="13">
+        <v>62</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>219644</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="18">
+        <f>E39-G39</f>
+        <v>219644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>44513</v>
+      </c>
+      <c r="B40" s="13">
+        <v>63</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20">
+        <v>2546</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
+        <f>E40-G40</f>
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>44515</v>
+      </c>
+      <c r="B41" s="13">
+        <v>65</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="67">
+        <v>3711</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="18">
+        <f>E41-G41</f>
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>44516</v>
+      </c>
+      <c r="B42" s="13">
+        <v>67</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="20">
+        <v>4624</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="18">
+        <f>E42-G42</f>
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>44517</v>
+      </c>
+      <c r="B43" s="13">
+        <v>69</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20">
+        <v>178470</v>
+      </c>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="18">
+        <f>E43-G43</f>
+        <v>178470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>44517</v>
+      </c>
+      <c r="B44" s="13">
+        <v>70</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="20">
+        <v>62080</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="18">
+        <f>E44-G44</f>
+        <v>62080</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>44517</v>
+      </c>
+      <c r="B45" s="13">
+        <v>71</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="20">
+        <v>101</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="18">
+        <f>E45-G45</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>44518</v>
+      </c>
+      <c r="B46" s="13">
+        <v>72</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="20">
+        <v>8588</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="18">
+        <f>E46-G46</f>
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>44520</v>
+      </c>
+      <c r="B47" s="13">
+        <v>73</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="20">
+        <v>768</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
+        <f>E47-G47</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>44524</v>
+      </c>
+      <c r="B48" s="13">
+        <v>77</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="20">
+        <v>13576</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="18">
+        <f>E48-G48</f>
+        <v>13576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>44526</v>
+      </c>
+      <c r="B49" s="13">
+        <v>81</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20">
+        <v>8799</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
+        <f>E49-G49</f>
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>44529</v>
+      </c>
+      <c r="B50" s="13">
+        <v>86</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>376</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="18">
+        <f>E50-G50</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>44529</v>
+      </c>
+      <c r="B51" s="13">
+        <v>87</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="20">
+        <v>21811</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
+        <f>E51-G51</f>
+        <v>21811</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>44529</v>
+      </c>
+      <c r="B52" s="13">
+        <v>88</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20">
+        <v>126</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="18">
+        <f>E52-G52</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>44529</v>
+      </c>
+      <c r="B53" s="13">
+        <v>90</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="20">
+        <v>86291</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="18">
+        <f>E53-G53</f>
+        <v>86291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>44529</v>
+      </c>
+      <c r="B54" s="13">
+        <v>91</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="20">
+        <v>161750</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="18">
+        <f>E54-G54</f>
+        <v>161750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>44533</v>
+      </c>
+      <c r="B55" s="13">
+        <v>94</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="20">
+        <v>617</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="18">
+        <f>E55-G55</f>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>44534</v>
+      </c>
+      <c r="B56" s="13">
+        <v>97</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="20">
+        <v>50957</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="18">
+        <f>E56-G56</f>
+        <v>50957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>44534</v>
+      </c>
+      <c r="B57" s="13">
+        <v>99</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="20">
+        <v>12005</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="18">
+        <f>E57-G57</f>
+        <v>12005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>44534</v>
+      </c>
+      <c r="B58" s="13">
+        <v>100</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="20">
+        <v>115785</v>
+      </c>
+      <c r="F58" s="21">
+        <v>44506</v>
+      </c>
+      <c r="G58" s="22">
+        <v>1065501.8999999999</v>
+      </c>
+      <c r="H58" s="18">
+        <f>E58-G58</f>
+        <v>-949716.89999999991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>44535</v>
+      </c>
+      <c r="B59" s="13">
+        <v>102</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="102" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="99">
+        <v>12020</v>
+      </c>
+      <c r="F59" s="100"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="101">
+        <f>E59-G59</f>
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="91">
+        <f>SUM(E14:E59)</f>
+        <v>1079503</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="97">
+        <f>SUM(H23:H59)</f>
+        <v>12325.100000000093</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>44532</v>
+      </c>
+      <c r="B64" s="13">
+        <v>93</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="20">
+        <v>3135</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="18">
+        <f>E64-G64</f>
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>44511</v>
+      </c>
+      <c r="B67" s="13">
+        <v>49</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="20">
+        <v>150</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="18">
+        <f>E67-G67</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>44512</v>
+      </c>
+      <c r="B68" s="13">
+        <v>51</v>
+      </c>
+      <c r="C68" s="88"/>
+      <c r="D68" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="20">
+        <v>8923</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="18">
+        <f t="shared" ref="H68:H85" si="1">E68-G68</f>
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>44513</v>
+      </c>
+      <c r="B69" s="13">
+        <v>59</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="20">
+        <v>18875</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="18">
+        <f t="shared" si="1"/>
+        <v>18875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>44513</v>
+      </c>
+      <c r="B70" s="13">
+        <v>60</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="20">
+        <v>10476</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="18">
+        <f t="shared" si="1"/>
+        <v>10476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>44515</v>
+      </c>
+      <c r="B71" s="13">
+        <v>66</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="67">
+        <v>2005</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="18">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>44516</v>
+      </c>
+      <c r="B72" s="13">
+        <v>68</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="20">
+        <v>3512</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="18">
+        <f t="shared" si="1"/>
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>44523</v>
+      </c>
+      <c r="B73" s="13">
+        <v>74</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="20">
+        <v>1189.81</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="18">
+        <f t="shared" si="1"/>
+        <v>1189.81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>44524</v>
+      </c>
+      <c r="B74" s="13">
+        <v>76</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="20">
+        <v>3655</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="18">
+        <f t="shared" si="1"/>
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>44525</v>
+      </c>
+      <c r="B75" s="13">
+        <v>79</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="20">
+        <v>15564</v>
+      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="18">
+        <f t="shared" si="1"/>
+        <v>15564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>44525</v>
+      </c>
+      <c r="B76" s="13">
+        <v>80</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="20">
+        <v>2279</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="18">
+        <f t="shared" si="1"/>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <v>44526</v>
+      </c>
+      <c r="B77" s="13">
+        <v>82</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="20">
+        <v>3337</v>
+      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="18">
+        <f t="shared" si="1"/>
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>44533</v>
+      </c>
+      <c r="B78" s="13">
+        <v>95</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="20">
+        <v>1409</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="18">
+        <f t="shared" si="1"/>
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>44533</v>
+      </c>
+      <c r="B79" s="13">
+        <v>96</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="20">
+        <v>806</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="18">
+        <f t="shared" si="1"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>44534</v>
+      </c>
+      <c r="B80" s="13">
+        <v>101</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="20">
+        <v>4289</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="18">
+        <f t="shared" si="1"/>
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="50">
+        <f>SUM(E67:E80)</f>
+        <v>76469.81</v>
+      </c>
+      <c r="F81" s="61"/>
+      <c r="G81" s="94">
+        <f>SUM(H67:H80)</f>
+        <v>76469.81</v>
+      </c>
+      <c r="H81" s="95"/>
+    </row>
+    <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="34">
+        <v>0</v>
+      </c>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="37"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="39">
+        <f>SUM(E4:E83)</f>
+        <v>2637934.62</v>
+      </c>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39">
+        <f>SUM(G4:G83)</f>
+        <v>1305074.71</v>
+      </c>
+      <c r="H84" s="18"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="37"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B86" s="37"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="42"/>
+      <c r="G86" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" s="44"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="37"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="37"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="81">
+        <f>E84-G84</f>
+        <v>1332859.9100000001</v>
+      </c>
+      <c r="F88" s="82"/>
+      <c r="G88" s="83"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="37"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="43"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B90" s="37"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="37"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="43"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="30"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="50"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="37"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="43"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="37"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="43"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="37"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="43"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="37"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="37"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="43"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="37"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="43"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="37"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="43"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="37"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="43"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="37"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="43"/>
+      <c r="I101" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A4:H64">
+    <sortCondition ref="D4:D64"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G81:H81"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" activeTab="1"/>
+    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="21">
   <si>
     <t>REMISION</t>
   </si>
@@ -749,39 +749,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -790,18 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,12 +787,57 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -870,13 +870,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
@@ -923,13 +923,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
@@ -1465,99 +1465,92 @@
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:E43"/>
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="13.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="53" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="18" style="56" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="18" style="56" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="77" t="s">
+    <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="101"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="F3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44488</v>
       </c>
       <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18">
-        <f t="shared" ref="H4:H116" si="0">E4-G4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18">
+        <f t="shared" ref="G4:G116" si="0">D4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44488</v>
       </c>
@@ -1565,21 +1558,20 @@
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44488</v>
       </c>
@@ -1587,19 +1579,18 @@
         <f t="shared" ref="B6:B69" si="1">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>44489</v>
       </c>
@@ -1607,25 +1598,24 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="67">
+      <c r="D7" s="67">
         <v>71124</v>
       </c>
-      <c r="F7" s="69">
+      <c r="E7" s="69">
         <v>44499</v>
       </c>
-      <c r="G7" s="70">
+      <c r="F7" s="70">
         <v>71124</v>
       </c>
-      <c r="H7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44216</v>
       </c>
@@ -1633,25 +1623,24 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="68" t="s">
+      <c r="C8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="67">
+      <c r="D8" s="67">
         <v>112811</v>
       </c>
-      <c r="F8" s="69">
+      <c r="E8" s="69">
         <v>44499</v>
       </c>
-      <c r="G8" s="70">
+      <c r="F8" s="70">
         <v>112811</v>
       </c>
-      <c r="H8" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44489</v>
       </c>
@@ -1659,25 +1648,24 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="67">
+      <c r="D9" s="67">
         <v>23209</v>
       </c>
-      <c r="F9" s="69">
+      <c r="E9" s="69">
         <v>44499</v>
       </c>
-      <c r="G9" s="70">
+      <c r="F9" s="70">
         <v>23209</v>
       </c>
-      <c r="H9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44489</v>
       </c>
@@ -1685,25 +1673,24 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="67">
+      <c r="D10" s="67">
         <v>116229</v>
       </c>
-      <c r="F10" s="69">
+      <c r="E10" s="69">
         <v>44499</v>
       </c>
-      <c r="G10" s="70">
+      <c r="F10" s="70">
         <v>116229</v>
       </c>
-      <c r="H10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44489</v>
       </c>
@@ -1711,25 +1698,24 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="67">
+      <c r="D11" s="67">
         <v>4402</v>
       </c>
-      <c r="F11" s="69">
+      <c r="E11" s="69">
         <v>44499</v>
       </c>
-      <c r="G11" s="70">
+      <c r="F11" s="70">
         <v>4402</v>
       </c>
-      <c r="H11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44489</v>
       </c>
@@ -1737,25 +1723,24 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="20">
+      <c r="D12" s="20">
         <v>4098</v>
       </c>
-      <c r="F12" s="69">
+      <c r="E12" s="69">
         <v>44499</v>
       </c>
-      <c r="G12" s="70">
+      <c r="F12" s="70">
         <v>4098</v>
       </c>
-      <c r="H12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44490</v>
       </c>
@@ -1763,25 +1748,24 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="20">
+      <c r="D13" s="20">
         <v>8137</v>
       </c>
-      <c r="F13" s="69">
+      <c r="E13" s="69">
         <v>44499</v>
       </c>
-      <c r="G13" s="70">
+      <c r="F13" s="70">
         <v>8137</v>
       </c>
-      <c r="H13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44490</v>
       </c>
@@ -1789,25 +1773,24 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
+      <c r="D14" s="20">
         <v>19763</v>
       </c>
-      <c r="F14" s="69">
+      <c r="E14" s="69">
         <v>44499</v>
       </c>
-      <c r="G14" s="70">
+      <c r="F14" s="70">
         <v>19763</v>
       </c>
-      <c r="H14" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44490</v>
       </c>
@@ -1815,21 +1798,20 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="65" t="s">
+      <c r="C15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="20">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44490</v>
       </c>
@@ -1837,25 +1819,24 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="20">
+      <c r="D16" s="20">
         <v>744</v>
       </c>
-      <c r="F16" s="69">
+      <c r="E16" s="69">
         <v>44499</v>
       </c>
-      <c r="G16" s="70">
+      <c r="F16" s="70">
         <v>744</v>
       </c>
-      <c r="H16" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44490</v>
       </c>
@@ -1863,25 +1844,24 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="20">
+      <c r="D17" s="20">
         <v>73655</v>
       </c>
-      <c r="F17" s="69">
+      <c r="E17" s="69">
         <v>44499</v>
       </c>
-      <c r="G17" s="70">
+      <c r="F17" s="70">
         <v>73655</v>
       </c>
-      <c r="H17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44490</v>
       </c>
@@ -1889,25 +1869,24 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="20">
+      <c r="D18" s="20">
         <v>114940</v>
       </c>
-      <c r="F18" s="69">
+      <c r="E18" s="69">
         <v>44499</v>
       </c>
-      <c r="G18" s="70">
+      <c r="F18" s="70">
         <v>114940</v>
       </c>
-      <c r="H18" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44490</v>
       </c>
@@ -1915,25 +1894,24 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="20">
+      <c r="D19" s="20">
         <v>122453</v>
       </c>
-      <c r="F19" s="69">
+      <c r="E19" s="69">
         <v>44499</v>
       </c>
-      <c r="G19" s="70">
+      <c r="F19" s="70">
         <v>122453</v>
       </c>
-      <c r="H19" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44490</v>
       </c>
@@ -1941,25 +1919,24 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="20">
+      <c r="D20" s="20">
         <v>1043</v>
       </c>
-      <c r="F20" s="21">
+      <c r="E20" s="21">
         <v>44491</v>
       </c>
-      <c r="G20" s="22">
+      <c r="F20" s="22">
         <v>1043</v>
       </c>
-      <c r="H20" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44490</v>
       </c>
@@ -1967,25 +1944,24 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="20">
+      <c r="D21" s="20">
         <v>15830</v>
       </c>
-      <c r="F21" s="69">
+      <c r="E21" s="69">
         <v>44499</v>
       </c>
-      <c r="G21" s="70">
+      <c r="F21" s="70">
         <v>15830</v>
       </c>
-      <c r="H21" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44491</v>
       </c>
@@ -1993,25 +1969,24 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="20">
+      <c r="D22" s="20">
         <v>28036</v>
       </c>
-      <c r="F22" s="69">
+      <c r="E22" s="69">
         <v>44499</v>
       </c>
-      <c r="G22" s="70">
+      <c r="F22" s="70">
         <v>28036</v>
       </c>
-      <c r="H22" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44491</v>
       </c>
@@ -2019,25 +1994,24 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="20">
+      <c r="D23" s="20">
         <v>136607</v>
       </c>
-      <c r="F23" s="69">
+      <c r="E23" s="69">
         <v>44499</v>
       </c>
-      <c r="G23" s="70">
+      <c r="F23" s="70">
         <v>136607</v>
       </c>
-      <c r="H23" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44491</v>
       </c>
@@ -2045,25 +2019,24 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="20">
+      <c r="D24" s="20">
         <v>193754</v>
       </c>
-      <c r="F24" s="69">
+      <c r="E24" s="69">
         <v>44499</v>
       </c>
-      <c r="G24" s="70">
+      <c r="F24" s="70">
         <v>193754</v>
       </c>
-      <c r="H24" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44491</v>
       </c>
@@ -2071,25 +2044,24 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="20">
+      <c r="D25" s="20">
         <v>6555</v>
       </c>
-      <c r="F25" s="69">
+      <c r="E25" s="69">
         <v>44499</v>
       </c>
-      <c r="G25" s="70">
+      <c r="F25" s="70">
         <v>6555</v>
       </c>
-      <c r="H25" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44492</v>
       </c>
@@ -2097,25 +2069,24 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="20">
+      <c r="D26" s="20">
         <v>1058</v>
       </c>
-      <c r="F26" s="69">
+      <c r="E26" s="69">
         <v>44499</v>
       </c>
-      <c r="G26" s="70">
+      <c r="F26" s="70">
         <v>1058</v>
       </c>
-      <c r="H26" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44493</v>
       </c>
@@ -2123,25 +2094,24 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="20">
+      <c r="D27" s="20">
         <v>4129</v>
       </c>
-      <c r="F27" s="69">
+      <c r="E27" s="69">
         <v>44499</v>
       </c>
-      <c r="G27" s="70">
+      <c r="F27" s="70">
         <v>4129</v>
       </c>
-      <c r="H27" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44494</v>
       </c>
@@ -2149,25 +2119,24 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="20">
+      <c r="D28" s="20">
         <v>10539</v>
       </c>
-      <c r="F28" s="69">
+      <c r="E28" s="69">
         <v>44499</v>
       </c>
-      <c r="G28" s="70">
+      <c r="F28" s="70">
         <v>10539</v>
       </c>
-      <c r="H28" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44495</v>
       </c>
@@ -2175,47 +2144,45 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="20">
+      <c r="D29" s="20">
         <v>1141</v>
       </c>
-      <c r="F29" s="21">
+      <c r="E29" s="21">
         <v>44499</v>
       </c>
-      <c r="G29" s="22">
+      <c r="F29" s="22">
         <v>1141</v>
       </c>
-      <c r="H29" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="69">
+      <c r="D30" s="67"/>
+      <c r="E30" s="69">
         <v>44499</v>
       </c>
-      <c r="G30" s="70">
-        <v>0</v>
-      </c>
-      <c r="H30" s="71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="70">
+        <v>0</v>
+      </c>
+      <c r="G30" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44495</v>
       </c>
@@ -2223,25 +2190,24 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="20">
+      <c r="D31" s="20">
         <v>2820</v>
       </c>
-      <c r="F31" s="69">
+      <c r="E31" s="69">
         <v>44499</v>
       </c>
-      <c r="G31" s="70">
+      <c r="F31" s="70">
         <v>2820</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44496</v>
       </c>
@@ -2249,25 +2215,24 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="20">
+      <c r="D32" s="20">
         <v>1261</v>
       </c>
-      <c r="F32" s="69">
+      <c r="E32" s="69">
         <v>44499</v>
       </c>
-      <c r="G32" s="70">
+      <c r="F32" s="70">
         <v>1261</v>
       </c>
-      <c r="H32" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44497</v>
       </c>
@@ -2275,25 +2240,24 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="20">
+      <c r="D33" s="20">
         <v>3483</v>
       </c>
-      <c r="F33" s="69">
+      <c r="E33" s="69">
         <v>44499</v>
       </c>
-      <c r="G33" s="70">
+      <c r="F33" s="70">
         <v>3483</v>
       </c>
-      <c r="H33" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>44497</v>
       </c>
@@ -2301,67 +2265,64 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="20">
+      <c r="D34" s="20">
         <v>1715</v>
       </c>
-      <c r="F34" s="69">
+      <c r="E34" s="69">
         <v>44499</v>
       </c>
-      <c r="G34" s="70">
+      <c r="F34" s="70">
         <v>1715</v>
       </c>
-      <c r="H34" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>44498</v>
       </c>
       <c r="B35" s="13">
         <v>32</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="20">
+      <c r="D35" s="20">
         <v>2515</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="18">
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="18">
         <f t="shared" si="0"/>
         <v>2515</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>44499</v>
       </c>
       <c r="B36" s="13">
         <v>33</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="20">
+      <c r="D36" s="20">
         <v>340</v>
       </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="18">
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="18">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>44499</v>
       </c>
@@ -2369,21 +2330,20 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="20">
+      <c r="D37" s="20">
         <v>15657</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="18">
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="18">
         <f t="shared" si="0"/>
         <v>15657</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>44500</v>
       </c>
@@ -2391,1487 +2351,1385 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="64" t="s">
+      <c r="C38" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="20">
-        <v>0</v>
-      </c>
-      <c r="F38" s="72" t="s">
+      <c r="D38" s="20">
+        <v>0</v>
+      </c>
+      <c r="E38" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="73"/>
-      <c r="H38" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="73"/>
+      <c r="G38" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>44500</v>
       </c>
       <c r="B39" s="13">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="20">
+      <c r="D39" s="20">
         <v>8585</v>
       </c>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="18">
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="18">
         <f t="shared" si="0"/>
         <v>8585</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>44501</v>
       </c>
       <c r="B40" s="13">
-        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="19" t="s">
+      <c r="C40" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="20">
+      <c r="D40" s="20">
         <v>259</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="18">
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="18">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>44502</v>
       </c>
       <c r="B41" s="13">
-        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="20">
+      <c r="D41" s="20">
         <v>8605</v>
       </c>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="18">
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="18">
         <f t="shared" si="0"/>
         <v>8605</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>44503</v>
       </c>
       <c r="B42" s="13">
-        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="20">
+      <c r="D42" s="20">
         <v>235</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="18">
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="18">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>44505</v>
       </c>
       <c r="B43" s="13">
         <v>40</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="20">
+      <c r="D43" s="20">
         <v>1618</v>
       </c>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="18">
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="18">
         <f t="shared" si="0"/>
         <v>1618</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>44505</v>
       </c>
       <c r="B44" s="13">
-        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="20">
+      <c r="D44" s="20">
         <v>784</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="18">
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="18">
         <f t="shared" si="0"/>
         <v>784</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="13">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="13">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="13">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="13">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="13">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="13">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="19"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="13">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="13">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="13">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="13">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="13">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="13">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="13">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="19"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="13">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="13">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="19"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="13">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C61" s="24"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="13">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="19"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="13">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="19"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="13">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="19"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="13">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="13">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="13">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C67" s="24"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="13">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="13">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="19"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="13">
         <f t="shared" ref="B70:B112" si="2">B69+1</f>
         <v>67</v>
       </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="13">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="C71" s="24"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="13">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="13">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="C73" s="24"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="13">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="C74" s="24"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="13">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="13">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="19"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="13">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="13">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="19"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="13">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="13">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="19"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="13">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="13">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="13">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="13">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" s="13">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="13">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="C86" s="24"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23"/>
       <c r="B87" s="13">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="C87" s="24"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="13">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="C88" s="24"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="13">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="C89" s="24"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="23"/>
       <c r="B90" s="13">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="C90" s="24"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="13">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="C91" s="24"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="19"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="13">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="19"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="23"/>
       <c r="B93" s="13">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="C93" s="24"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="19"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="13">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="19"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="13">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="19"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="13">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="19"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="13">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="C97" s="24"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="19"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="23"/>
       <c r="B98" s="13">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="19"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="13">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="13">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="13">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="13">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="C102" s="24"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="22"/>
+      <c r="G102" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="13">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="19"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="13">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="C104" s="24"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="19"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="13">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="19"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="13">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="C106" s="24"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="19"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23"/>
       <c r="B107" s="13">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="C107" s="24"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="19"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="13">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="C108" s="24"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="19"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="13">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="C109" s="24"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="19"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="13">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="C110" s="24"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="13">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="C111" s="24"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="19"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="13">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="C112" s="24"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="60"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="62"/>
-      <c r="H113" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="59"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="13"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="59"/>
-      <c r="E114" s="60"/>
-      <c r="F114" s="61"/>
-      <c r="G114" s="62"/>
-      <c r="H114" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="59"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="59"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="62"/>
-      <c r="H115" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="59"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="31"/>
       <c r="B116" s="13"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="34">
-        <v>0</v>
-      </c>
-      <c r="F116" s="35"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="33"/>
+      <c r="D116" s="34">
+        <v>0</v>
+      </c>
+      <c r="E116" s="35"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B117" s="37"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="39">
-        <f>SUM(E4:E116)</f>
+      <c r="C117" s="2"/>
+      <c r="D117" s="39">
+        <f>SUM(D4:D116)</f>
         <v>1118134</v>
       </c>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39">
+      <c r="E117" s="39"/>
+      <c r="F117" s="39">
+        <f>SUM(F4:F116)</f>
+        <v>1079536</v>
+      </c>
+      <c r="G117" s="40">
         <f>SUM(G4:G116)</f>
-        <v>1079536</v>
-      </c>
-      <c r="H117" s="40">
-        <f>SUM(H4:H116)</f>
         <v>38598</v>
       </c>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B118" s="37"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C118" s="2"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B119" s="37"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="45" t="s">
+      <c r="C119" s="2"/>
+      <c r="D119" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F119" s="42"/>
-      <c r="G119" s="46" t="s">
+      <c r="E119" s="42"/>
+      <c r="F119" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="44"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="44"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="37"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="46"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C120" s="2"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="37"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="81">
-        <f>E117-G117</f>
+      <c r="C121" s="2"/>
+      <c r="D121" s="103">
+        <f>D117-F117</f>
         <v>38598</v>
       </c>
-      <c r="F121" s="82"/>
-      <c r="G121" s="83"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E121" s="104"/>
+      <c r="F121" s="105"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B122" s="37"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="43"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C122" s="2"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="43"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B123" s="37"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="84" t="s">
+      <c r="C123" s="2"/>
+      <c r="D123" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="84"/>
-      <c r="G123" s="84"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E123" s="106"/>
+      <c r="F123" s="106"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B124" s="37"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="43"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C124" s="2"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="43"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="30"/>
       <c r="B125" s="47"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="50"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="50"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="49"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="50"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126" s="37"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="43"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="2"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="43"/>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B127" s="37"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="42"/>
-      <c r="G127" s="43"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="2"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="43"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B128" s="37"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="43"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="2"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="42"/>
+      <c r="F128" s="43"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="37"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="43"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C129" s="2"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="42"/>
+      <c r="F129" s="43"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="37"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="42"/>
-      <c r="G130" s="43"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C130" s="2"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="43"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="37"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="43"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C131" s="2"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="43"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="37"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="41"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="43"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C132" s="2"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="43"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="37"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="41"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="43"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C133" s="2"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="43"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="37"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="41"/>
-      <c r="F134" s="42"/>
-      <c r="G134" s="43"/>
-      <c r="I134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="43"/>
+      <c r="H134" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3885,8 +3743,8 @@
   </sheetPr>
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3912,47 +3770,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
       <c r="I1" s="2"/>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
       <c r="R2" s="5"/>
       <c r="S2" s="2"/>
     </row>
@@ -4036,7 +3894,7 @@
         <v>64</v>
       </c>
       <c r="M4" s="24"/>
-      <c r="N4" s="90" t="s">
+      <c r="N4" s="79" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="15">
@@ -4045,7 +3903,7 @@
       <c r="P4" s="61"/>
       <c r="Q4" s="62"/>
       <c r="R4" s="18">
-        <f>O4-Q4</f>
+        <f t="shared" ref="R4:R10" si="1">O4-Q4</f>
         <v>39216</v>
       </c>
       <c r="S4" s="2"/>
@@ -4091,7 +3949,7 @@
         <v>59045</v>
       </c>
       <c r="R5" s="18">
-        <f>O5-Q5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4100,7 +3958,7 @@
         <v>44509</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" ref="B6:B64" si="1">B5+1</f>
+        <f t="shared" ref="B6:B64" si="2">B5+1</f>
         <v>44</v>
       </c>
       <c r="C6" s="14"/>
@@ -4132,7 +3990,7 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="18">
-        <f>O6-Q6</f>
+        <f t="shared" si="1"/>
         <v>6961</v>
       </c>
     </row>
@@ -4141,7 +3999,7 @@
         <v>44509</v>
       </c>
       <c r="B7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C7" s="14"/>
@@ -4173,19 +4031,19 @@
       <c r="P7" s="21"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="18">
-        <f>O7-Q7</f>
+        <f t="shared" si="1"/>
         <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="104">
+      <c r="A8" s="89">
         <v>44509</v>
       </c>
       <c r="B8" s="47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="C8" s="105"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="74" t="s">
         <v>14</v>
       </c>
@@ -4218,7 +4076,7 @@
         <v>53508</v>
       </c>
       <c r="R8" s="18">
-        <f>O8-Q8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +4085,7 @@
         <v>44510</v>
       </c>
       <c r="B9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C9" s="14"/>
@@ -4259,7 +4117,7 @@
       <c r="P9" s="21"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="18">
-        <f>O9-Q9</f>
+        <f t="shared" si="1"/>
         <v>1421</v>
       </c>
     </row>
@@ -4268,7 +4126,7 @@
         <v>44510</v>
       </c>
       <c r="B10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C10" s="14"/>
@@ -4300,7 +4158,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="18">
-        <f>O10-Q10</f>
+        <f t="shared" si="1"/>
         <v>519</v>
       </c>
     </row>
@@ -4309,7 +4167,7 @@
         <v>44511</v>
       </c>
       <c r="B11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C11" s="14"/>
@@ -4329,23 +4187,23 @@
       <c r="L11" s="13"/>
       <c r="M11" s="24"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="91">
+      <c r="O11" s="80">
         <f>SUM(O4:O10)</f>
         <v>161427</v>
       </c>
       <c r="P11" s="21"/>
-      <c r="Q11" s="92">
+      <c r="Q11" s="112">
         <f>SUM(R4:R10)</f>
         <v>48874</v>
       </c>
-      <c r="R11" s="93"/>
+      <c r="R11" s="113"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44511</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C12" s="24"/>
@@ -4375,7 +4233,7 @@
         <v>44512</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="C13" s="25"/>
@@ -4405,7 +4263,7 @@
         <v>44512</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="C14" s="24"/>
@@ -4437,7 +4295,7 @@
       <c r="P14" s="21"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="18">
-        <f>O14-Q14</f>
+        <f t="shared" ref="R14:R21" si="3">O14-Q14</f>
         <v>0</v>
       </c>
     </row>
@@ -4446,7 +4304,7 @@
         <v>44512</v>
       </c>
       <c r="B15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="C15" s="25"/>
@@ -4478,7 +4336,7 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="18">
-        <f>O15-Q15</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4487,7 +4345,7 @@
         <v>44512</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="C16" s="24"/>
@@ -4519,7 +4377,7 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="18">
-        <f>O16-Q16</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4528,7 +4386,7 @@
         <v>44512</v>
       </c>
       <c r="B17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="C17" s="25"/>
@@ -4550,7 +4408,7 @@
       <c r="L17" s="13">
         <v>53</v>
       </c>
-      <c r="M17" s="88"/>
+      <c r="M17" s="77"/>
       <c r="N17" s="64" t="s">
         <v>9</v>
       </c>
@@ -4560,7 +4418,7 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="18">
-        <f>O17-Q17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4569,7 +4427,7 @@
         <v>44512</v>
       </c>
       <c r="B18" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="C18" s="24"/>
@@ -4591,7 +4449,7 @@
       <c r="L18" s="13">
         <v>58</v>
       </c>
-      <c r="M18" s="89"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="64" t="s">
         <v>9</v>
       </c>
@@ -4601,7 +4459,7 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="18">
-        <f>O18-Q18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4610,7 +4468,7 @@
         <v>44512</v>
       </c>
       <c r="B19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="C19" s="25"/>
@@ -4642,7 +4500,7 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="18">
-        <f>O19-Q19</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4651,7 +4509,7 @@
         <v>44513</v>
       </c>
       <c r="B20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C20" s="24"/>
@@ -4673,7 +4531,7 @@
       <c r="L20" s="13">
         <v>84</v>
       </c>
-      <c r="M20" s="89"/>
+      <c r="M20" s="78"/>
       <c r="N20" s="64" t="s">
         <v>9</v>
       </c>
@@ -4683,7 +4541,7 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="18">
-        <f>O20-Q20</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4692,7 +4550,7 @@
         <v>44513</v>
       </c>
       <c r="B21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="C21" s="24"/>
@@ -4724,7 +4582,7 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="18">
-        <f>O21-Q21</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4733,7 +4591,7 @@
         <v>44513</v>
       </c>
       <c r="B22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="C22" s="24"/>
@@ -4763,7 +4621,7 @@
         <v>44513</v>
       </c>
       <c r="B23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="C23" s="24"/>
@@ -4795,7 +4653,7 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="18">
-        <f t="shared" ref="R23:R29" si="2">O23-Q23</f>
+        <f t="shared" ref="R23:R29" si="4">O23-Q23</f>
         <v>15657</v>
       </c>
     </row>
@@ -4804,7 +4662,7 @@
         <v>44513</v>
       </c>
       <c r="B24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="C24" s="24"/>
@@ -4836,7 +4694,7 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8585</v>
       </c>
     </row>
@@ -4845,7 +4703,7 @@
         <v>44513</v>
       </c>
       <c r="B25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="C25" s="24"/>
@@ -4877,7 +4735,7 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
     </row>
@@ -4886,7 +4744,7 @@
         <v>44513</v>
       </c>
       <c r="B26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="C26" s="24"/>
@@ -4918,7 +4776,7 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8605</v>
       </c>
     </row>
@@ -4927,7 +4785,7 @@
         <v>44515</v>
       </c>
       <c r="B27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="C27" s="24"/>
@@ -4959,7 +4817,7 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
     </row>
@@ -4968,7 +4826,7 @@
         <v>44515</v>
       </c>
       <c r="B28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C28" s="24"/>
@@ -5000,7 +4858,7 @@
       <c r="P28" s="21"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>784</v>
       </c>
     </row>
@@ -5009,7 +4867,7 @@
         <v>44516</v>
       </c>
       <c r="B29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C29" s="24"/>
@@ -5045,7 +4903,7 @@
         <v>1676</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5054,7 +4912,7 @@
         <v>44516</v>
       </c>
       <c r="B30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C30" s="24"/>
@@ -5095,7 +4953,7 @@
         <v>44517</v>
       </c>
       <c r="B31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C31" s="24"/>
@@ -5114,13 +4972,13 @@
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="99">
-        <v>0</v>
-      </c>
-      <c r="P31" s="100"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="84">
+        <v>0</v>
+      </c>
+      <c r="P31" s="85"/>
       <c r="Q31" s="22"/>
-      <c r="R31" s="101">
+      <c r="R31" s="86">
         <v>0</v>
       </c>
     </row>
@@ -5161,7 +5019,7 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="18">
-        <f>O32-Q32</f>
+        <f t="shared" ref="R32:R59" si="5">O32-Q32</f>
         <v>1333</v>
       </c>
     </row>
@@ -5170,7 +5028,7 @@
         <v>44517</v>
       </c>
       <c r="B33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="C33" s="24"/>
@@ -5202,7 +5060,7 @@
       <c r="P33" s="21"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="18">
-        <f>O33-Q33</f>
+        <f t="shared" si="5"/>
         <v>2460</v>
       </c>
     </row>
@@ -5211,7 +5069,7 @@
         <v>44518</v>
       </c>
       <c r="B34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="C34" s="27"/>
@@ -5243,7 +5101,7 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="18">
-        <f>O34-Q34</f>
+        <f t="shared" si="5"/>
         <v>47911</v>
       </c>
     </row>
@@ -5252,7 +5110,7 @@
         <v>44520</v>
       </c>
       <c r="B35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C35" s="28"/>
@@ -5284,7 +5142,7 @@
       <c r="P35" s="21"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="18">
-        <f>O35-Q35</f>
+        <f t="shared" si="5"/>
         <v>622</v>
       </c>
     </row>
@@ -5293,7 +5151,7 @@
         <v>44523</v>
       </c>
       <c r="B36" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="C36" s="24"/>
@@ -5315,7 +5173,7 @@
       <c r="L36" s="13">
         <v>55</v>
       </c>
-      <c r="M36" s="88"/>
+      <c r="M36" s="77"/>
       <c r="N36" s="19" t="s">
         <v>18</v>
       </c>
@@ -5325,7 +5183,7 @@
       <c r="P36" s="21"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="18">
-        <f>O36-Q36</f>
+        <f t="shared" si="5"/>
         <v>10714</v>
       </c>
     </row>
@@ -5334,7 +5192,7 @@
         <v>44524</v>
       </c>
       <c r="B37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C37" s="24"/>
@@ -5370,7 +5228,7 @@
       <c r="P37" s="21"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="18">
-        <f>O37-Q37</f>
+        <f t="shared" si="5"/>
         <v>1785</v>
       </c>
     </row>
@@ -5379,7 +5237,7 @@
         <v>44524</v>
       </c>
       <c r="B38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C38" s="24"/>
@@ -5401,7 +5259,7 @@
       <c r="L38" s="13">
         <v>57</v>
       </c>
-      <c r="M38" s="88"/>
+      <c r="M38" s="77"/>
       <c r="N38" s="19" t="s">
         <v>18</v>
       </c>
@@ -5411,7 +5269,7 @@
       <c r="P38" s="21"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="18">
-        <f>O38-Q38</f>
+        <f t="shared" si="5"/>
         <v>13805</v>
       </c>
     </row>
@@ -5420,7 +5278,7 @@
         <v>44524</v>
       </c>
       <c r="B39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C39" s="24"/>
@@ -5452,7 +5310,7 @@
       <c r="P39" s="21"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="18">
-        <f>O39-Q39</f>
+        <f t="shared" si="5"/>
         <v>219644</v>
       </c>
     </row>
@@ -5461,7 +5319,7 @@
         <v>44525</v>
       </c>
       <c r="B40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C40" s="24"/>
@@ -5493,7 +5351,7 @@
       <c r="P40" s="21"/>
       <c r="Q40" s="22"/>
       <c r="R40" s="18">
-        <f>O40-Q40</f>
+        <f t="shared" si="5"/>
         <v>2546</v>
       </c>
     </row>
@@ -5502,7 +5360,7 @@
         <v>44525</v>
       </c>
       <c r="B41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="C41" s="24"/>
@@ -5534,7 +5392,7 @@
       <c r="P41" s="21"/>
       <c r="Q41" s="22"/>
       <c r="R41" s="18">
-        <f>O41-Q41</f>
+        <f t="shared" si="5"/>
         <v>3711</v>
       </c>
     </row>
@@ -5543,7 +5401,7 @@
         <v>44525</v>
       </c>
       <c r="B42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="C42" s="24"/>
@@ -5575,7 +5433,7 @@
       <c r="P42" s="21"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="18">
-        <f>O42-Q42</f>
+        <f t="shared" si="5"/>
         <v>4624</v>
       </c>
     </row>
@@ -5584,7 +5442,7 @@
         <v>44526</v>
       </c>
       <c r="B43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="C43" s="24"/>
@@ -5616,7 +5474,7 @@
       <c r="P43" s="21"/>
       <c r="Q43" s="22"/>
       <c r="R43" s="18">
-        <f>O43-Q43</f>
+        <f t="shared" si="5"/>
         <v>178470</v>
       </c>
     </row>
@@ -5625,7 +5483,7 @@
         <v>44526</v>
       </c>
       <c r="B44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="C44" s="24"/>
@@ -5657,7 +5515,7 @@
       <c r="P44" s="21"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="18">
-        <f>O44-Q44</f>
+        <f t="shared" si="5"/>
         <v>62080</v>
       </c>
     </row>
@@ -5666,7 +5524,7 @@
         <v>44526</v>
       </c>
       <c r="B45" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="C45" s="24"/>
@@ -5698,7 +5556,7 @@
       <c r="P45" s="21"/>
       <c r="Q45" s="22"/>
       <c r="R45" s="18">
-        <f>O45-Q45</f>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
     </row>
@@ -5707,7 +5565,7 @@
         <v>44527</v>
       </c>
       <c r="B46" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="C46" s="24"/>
@@ -5739,7 +5597,7 @@
       <c r="P46" s="21"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="18">
-        <f>O46-Q46</f>
+        <f t="shared" si="5"/>
         <v>8588</v>
       </c>
     </row>
@@ -5748,7 +5606,7 @@
         <v>44527</v>
       </c>
       <c r="B47" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="C47" s="24"/>
@@ -5780,7 +5638,7 @@
       <c r="P47" s="21"/>
       <c r="Q47" s="22"/>
       <c r="R47" s="18">
-        <f>O47-Q47</f>
+        <f t="shared" si="5"/>
         <v>768</v>
       </c>
     </row>
@@ -5789,7 +5647,7 @@
         <v>44529</v>
       </c>
       <c r="B48" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="C48" s="24"/>
@@ -5821,7 +5679,7 @@
       <c r="P48" s="21"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="18">
-        <f>O48-Q48</f>
+        <f t="shared" si="5"/>
         <v>13576</v>
       </c>
     </row>
@@ -5830,7 +5688,7 @@
         <v>44529</v>
       </c>
       <c r="B49" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="C49" s="24"/>
@@ -5862,7 +5720,7 @@
       <c r="P49" s="21"/>
       <c r="Q49" s="22"/>
       <c r="R49" s="18">
-        <f>O49-Q49</f>
+        <f t="shared" si="5"/>
         <v>8799</v>
       </c>
     </row>
@@ -5871,7 +5729,7 @@
         <v>44529</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="C50" s="24"/>
@@ -5903,7 +5761,7 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="18">
-        <f>O50-Q50</f>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
     </row>
@@ -5912,7 +5770,7 @@
         <v>44529</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="C51" s="24"/>
@@ -5948,7 +5806,7 @@
       <c r="P51" s="21"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="18">
-        <f>O51-Q51</f>
+        <f t="shared" si="5"/>
         <v>21811</v>
       </c>
     </row>
@@ -5957,7 +5815,7 @@
         <v>44529</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="C52" s="24"/>
@@ -5989,7 +5847,7 @@
       <c r="P52" s="21"/>
       <c r="Q52" s="22"/>
       <c r="R52" s="18">
-        <f>O52-Q52</f>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
     </row>
@@ -5998,7 +5856,7 @@
         <v>44529</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="C53" s="24"/>
@@ -6030,7 +5888,7 @@
       <c r="P53" s="21"/>
       <c r="Q53" s="22"/>
       <c r="R53" s="18">
-        <f>O53-Q53</f>
+        <f t="shared" si="5"/>
         <v>86291</v>
       </c>
     </row>
@@ -6039,7 +5897,7 @@
         <v>44531</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="C54" s="24"/>
@@ -6071,7 +5929,7 @@
       <c r="P54" s="21"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="18">
-        <f>O54-Q54</f>
+        <f t="shared" si="5"/>
         <v>161750</v>
       </c>
     </row>
@@ -6080,7 +5938,7 @@
         <v>44532</v>
       </c>
       <c r="B55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="C55" s="24"/>
@@ -6112,7 +5970,7 @@
       <c r="P55" s="21"/>
       <c r="Q55" s="22"/>
       <c r="R55" s="18">
-        <f>O55-Q55</f>
+        <f t="shared" si="5"/>
         <v>617</v>
       </c>
     </row>
@@ -6121,7 +5979,7 @@
         <v>44533</v>
       </c>
       <c r="B56" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="C56" s="24"/>
@@ -6153,7 +6011,7 @@
       <c r="P56" s="21"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="18">
-        <f>O56-Q56</f>
+        <f t="shared" si="5"/>
         <v>50957</v>
       </c>
     </row>
@@ -6162,7 +6020,7 @@
         <v>44533</v>
       </c>
       <c r="B57" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="C57" s="24"/>
@@ -6194,7 +6052,7 @@
       <c r="P57" s="21"/>
       <c r="Q57" s="22"/>
       <c r="R57" s="18">
-        <f>O57-Q57</f>
+        <f t="shared" si="5"/>
         <v>12005</v>
       </c>
     </row>
@@ -6203,7 +6061,7 @@
         <v>44533</v>
       </c>
       <c r="B58" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="C58" s="24"/>
@@ -6239,7 +6097,7 @@
         <v>1065501.8999999999</v>
       </c>
       <c r="R58" s="18">
-        <f>O58-Q58</f>
+        <f t="shared" si="5"/>
         <v>-949716.89999999991</v>
       </c>
     </row>
@@ -6248,7 +6106,7 @@
         <v>44534</v>
       </c>
       <c r="B59" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="C59" s="24"/>
@@ -6271,16 +6129,16 @@
         <v>102</v>
       </c>
       <c r="M59" s="24"/>
-      <c r="N59" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59" s="99">
+      <c r="N59" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59" s="84">
         <v>12020</v>
       </c>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="103"/>
-      <c r="R59" s="101">
-        <f>O59-Q59</f>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="88"/>
+      <c r="R59" s="86">
+        <f t="shared" si="5"/>
         <v>12020</v>
       </c>
     </row>
@@ -6289,7 +6147,7 @@
         <v>44534</v>
       </c>
       <c r="B60" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="C60" s="24"/>
@@ -6309,13 +6167,13 @@
       <c r="L60" s="13"/>
       <c r="M60" s="24"/>
       <c r="N60" s="19"/>
-      <c r="O60" s="91">
+      <c r="O60" s="80">
         <f>SUM(O14:O59)</f>
         <v>1079196</v>
       </c>
       <c r="P60" s="21"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="97">
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82">
         <f>SUM(R23:R59)</f>
         <v>12018.100000000093</v>
       </c>
@@ -6325,7 +6183,7 @@
         <v>44534</v>
       </c>
       <c r="B61" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="C61" s="24"/>
@@ -6355,7 +6213,7 @@
         <v>44534</v>
       </c>
       <c r="B62" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="C62" s="24"/>
@@ -6385,7 +6243,7 @@
         <v>44534</v>
       </c>
       <c r="B63" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="C63" s="24"/>
@@ -6417,7 +6275,7 @@
         <v>44535</v>
       </c>
       <c r="B64" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="C64" s="24"/>
@@ -6477,7 +6335,7 @@
       <c r="O65" s="20"/>
       <c r="P65" s="21"/>
       <c r="Q65" s="22"/>
-      <c r="R65" s="106"/>
+      <c r="R65" s="91"/>
     </row>
     <row r="66" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
@@ -6501,7 +6359,7 @@
       <c r="O66" s="20"/>
       <c r="P66" s="21"/>
       <c r="Q66" s="22"/>
-      <c r="R66" s="106"/>
+      <c r="R66" s="91"/>
     </row>
     <row r="67" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
@@ -6530,7 +6388,7 @@
       <c r="P67" s="21"/>
       <c r="Q67" s="22"/>
       <c r="R67" s="18">
-        <f t="shared" ref="R67:R71" si="3">O67-Q67</f>
+        <f t="shared" ref="R67:R71" si="6">O67-Q67</f>
         <v>2515</v>
       </c>
     </row>
@@ -6561,7 +6419,7 @@
       <c r="P68" s="21"/>
       <c r="Q68" s="22"/>
       <c r="R68" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
     </row>
@@ -6592,7 +6450,7 @@
       <c r="P69" s="21"/>
       <c r="Q69" s="22"/>
       <c r="R69" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1618</v>
       </c>
     </row>
@@ -6608,14 +6466,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K70" s="104">
+      <c r="K70" s="89">
         <v>44509</v>
       </c>
       <c r="L70" s="47">
-        <f t="shared" ref="L70" si="4">L69+1</f>
+        <f t="shared" ref="L70" si="7">L69+1</f>
         <v>41</v>
       </c>
-      <c r="M70" s="105"/>
+      <c r="M70" s="90"/>
       <c r="N70" s="74" t="s">
         <v>14</v>
       </c>
@@ -6623,7 +6481,7 @@
         <v>307</v>
       </c>
       <c r="R70" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
     </row>
@@ -6658,7 +6516,7 @@
       <c r="P71" s="21"/>
       <c r="Q71" s="22"/>
       <c r="R71" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
     </row>
@@ -6686,7 +6544,7 @@
       <c r="L72" s="13">
         <v>51</v>
       </c>
-      <c r="M72" s="88"/>
+      <c r="M72" s="77"/>
       <c r="N72" s="19" t="s">
         <v>14</v>
       </c>
@@ -6696,7 +6554,7 @@
       <c r="P72" s="21"/>
       <c r="Q72" s="22"/>
       <c r="R72" s="18">
-        <f>O72-Q72</f>
+        <f t="shared" ref="R72:R84" si="8">O72-Q72</f>
         <v>8923</v>
       </c>
     </row>
@@ -6725,7 +6583,7 @@
       <c r="P73" s="21"/>
       <c r="Q73" s="22"/>
       <c r="R73" s="18">
-        <f>O73-Q73</f>
+        <f t="shared" si="8"/>
         <v>18875</v>
       </c>
     </row>
@@ -6758,7 +6616,7 @@
       <c r="P74" s="21"/>
       <c r="Q74" s="22"/>
       <c r="R74" s="18">
-        <f>O74-Q74</f>
+        <f t="shared" si="8"/>
         <v>10476</v>
       </c>
     </row>
@@ -6787,7 +6645,7 @@
       <c r="P75" s="21"/>
       <c r="Q75" s="22"/>
       <c r="R75" s="18">
-        <f>O75-Q75</f>
+        <f t="shared" si="8"/>
         <v>2005</v>
       </c>
     </row>
@@ -6795,12 +6653,12 @@
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="81">
+      <c r="E76" s="103">
         <f>E72-G72</f>
         <v>25428.720000000205</v>
       </c>
-      <c r="F76" s="82"/>
-      <c r="G76" s="83"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="105"/>
       <c r="I76" s="2"/>
       <c r="K76" s="23">
         <v>44516</v>
@@ -6818,7 +6676,7 @@
       <c r="P76" s="21"/>
       <c r="Q76" s="22"/>
       <c r="R76" s="18">
-        <f>O76-Q76</f>
+        <f t="shared" si="8"/>
         <v>3512</v>
       </c>
     </row>
@@ -6846,7 +6704,7 @@
       <c r="P77" s="21"/>
       <c r="Q77" s="22"/>
       <c r="R77" s="18">
-        <f>O77-Q77</f>
+        <f t="shared" si="8"/>
         <v>1189.81</v>
       </c>
     </row>
@@ -6854,11 +6712,11 @@
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="84" t="s">
+      <c r="E78" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
       <c r="I78" s="2"/>
       <c r="K78" s="23">
         <v>44524</v>
@@ -6876,7 +6734,7 @@
       <c r="P78" s="21"/>
       <c r="Q78" s="22"/>
       <c r="R78" s="18">
-        <f>O78-Q78</f>
+        <f t="shared" si="8"/>
         <v>3655</v>
       </c>
     </row>
@@ -6904,7 +6762,7 @@
       <c r="P79" s="21"/>
       <c r="Q79" s="22"/>
       <c r="R79" s="18">
-        <f>O79-Q79</f>
+        <f t="shared" si="8"/>
         <v>15564</v>
       </c>
     </row>
@@ -6933,7 +6791,7 @@
       <c r="P80" s="21"/>
       <c r="Q80" s="22"/>
       <c r="R80" s="18">
-        <f>O80-Q80</f>
+        <f t="shared" si="8"/>
         <v>2279</v>
       </c>
     </row>
@@ -6961,7 +6819,7 @@
       <c r="P81" s="21"/>
       <c r="Q81" s="22"/>
       <c r="R81" s="18">
-        <f>O81-Q81</f>
+        <f t="shared" si="8"/>
         <v>3337</v>
       </c>
     </row>
@@ -6989,7 +6847,7 @@
       <c r="P82" s="21"/>
       <c r="Q82" s="22"/>
       <c r="R82" s="18">
-        <f>O82-Q82</f>
+        <f t="shared" si="8"/>
         <v>1409</v>
       </c>
     </row>
@@ -7017,7 +6875,7 @@
       <c r="P83" s="21"/>
       <c r="Q83" s="22"/>
       <c r="R83" s="18">
-        <f>O83-Q83</f>
+        <f t="shared" si="8"/>
         <v>806</v>
       </c>
     </row>
@@ -7049,7 +6907,7 @@
         <v>81250.19</v>
       </c>
       <c r="R84" s="18">
-        <f>O84-Q84</f>
+        <f t="shared" si="8"/>
         <v>-76961.19</v>
       </c>
     </row>
@@ -7070,7 +6928,7 @@
         <v>76469.81</v>
       </c>
       <c r="P85" s="61"/>
-      <c r="R85" s="107">
+      <c r="R85" s="92">
         <f>SUM(R67:R84)</f>
         <v>-0.38000000000465661</v>
       </c>
@@ -7093,7 +6951,7 @@
       <c r="P86" s="35"/>
       <c r="Q86" s="36"/>
       <c r="R86" s="18">
-        <f t="shared" ref="R71:R88" si="5">O86-Q86</f>
+        <f t="shared" ref="R86:R88" si="9">O86-Q86</f>
         <v>0</v>
       </c>
       <c r="S86" s="2"/>
@@ -7136,7 +6994,7 @@
       <c r="P88" s="42"/>
       <c r="Q88" s="43"/>
       <c r="R88" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S88" s="2"/>
@@ -7151,58 +7009,58 @@
       <c r="I89" s="2"/>
       <c r="L89" s="37"/>
       <c r="M89" s="38"/>
-      <c r="N89" s="108"/>
-      <c r="O89" s="109"/>
-      <c r="P89" s="110"/>
-      <c r="Q89" s="111"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="94"/>
+      <c r="P89" s="95"/>
+      <c r="Q89" s="96"/>
       <c r="R89" s="44"/>
       <c r="S89" s="2"/>
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L90" s="37"/>
       <c r="M90" s="38"/>
-      <c r="N90" s="108"/>
-      <c r="O90" s="109"/>
-      <c r="P90" s="110"/>
-      <c r="Q90" s="111"/>
+      <c r="N90" s="93"/>
+      <c r="O90" s="94"/>
+      <c r="P90" s="95"/>
+      <c r="Q90" s="96"/>
       <c r="R90" s="44"/>
       <c r="S90" s="2"/>
     </row>
     <row r="91" spans="2:19" ht="21" x14ac:dyDescent="0.35">
       <c r="L91" s="37"/>
       <c r="M91" s="38"/>
-      <c r="N91" s="108"/>
-      <c r="O91" s="112"/>
-      <c r="P91" s="112"/>
-      <c r="Q91" s="112"/>
+      <c r="N91" s="93"/>
+      <c r="O91" s="107"/>
+      <c r="P91" s="107"/>
+      <c r="Q91" s="107"/>
       <c r="R91" s="44"/>
       <c r="S91" s="2"/>
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L92" s="37"/>
       <c r="M92" s="38"/>
-      <c r="N92" s="108"/>
-      <c r="O92" s="113"/>
-      <c r="P92" s="110"/>
-      <c r="Q92" s="114"/>
+      <c r="N92" s="93"/>
+      <c r="O92" s="97"/>
+      <c r="P92" s="95"/>
+      <c r="Q92" s="98"/>
       <c r="S92" s="2"/>
     </row>
     <row r="93" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L93" s="37"/>
       <c r="M93" s="38"/>
-      <c r="N93" s="108"/>
-      <c r="O93" s="115"/>
-      <c r="P93" s="115"/>
-      <c r="Q93" s="115"/>
+      <c r="N93" s="93"/>
+      <c r="O93" s="108"/>
+      <c r="P93" s="108"/>
+      <c r="Q93" s="108"/>
       <c r="S93" s="2"/>
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L94" s="37"/>
       <c r="M94" s="38"/>
-      <c r="N94" s="108"/>
-      <c r="O94" s="113"/>
-      <c r="P94" s="110"/>
-      <c r="Q94" s="114"/>
+      <c r="N94" s="93"/>
+      <c r="O94" s="97"/>
+      <c r="P94" s="95"/>
+      <c r="Q94" s="98"/>
       <c r="S94" s="2"/>
     </row>
     <row r="95" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -7218,28 +7076,28 @@
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="L96" s="37"/>
       <c r="M96" s="38"/>
-      <c r="N96" s="108"/>
-      <c r="O96" s="113"/>
-      <c r="P96" s="110"/>
-      <c r="Q96" s="114"/>
+      <c r="N96" s="93"/>
+      <c r="O96" s="97"/>
+      <c r="P96" s="95"/>
+      <c r="Q96" s="98"/>
       <c r="S96" s="2"/>
     </row>
     <row r="97" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L97" s="37"/>
       <c r="M97" s="38"/>
-      <c r="N97" s="108"/>
-      <c r="O97" s="113"/>
-      <c r="P97" s="110"/>
-      <c r="Q97" s="114"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="97"/>
+      <c r="P97" s="95"/>
+      <c r="Q97" s="98"/>
       <c r="S97" s="2"/>
     </row>
     <row r="98" spans="12:19" x14ac:dyDescent="0.25">
       <c r="L98" s="37"/>
       <c r="M98" s="38"/>
-      <c r="N98" s="108"/>
-      <c r="O98" s="113"/>
-      <c r="P98" s="110"/>
-      <c r="Q98" s="114"/>
+      <c r="N98" s="93"/>
+      <c r="O98" s="97"/>
+      <c r="P98" s="95"/>
+      <c r="Q98" s="98"/>
       <c r="S98" s="2"/>
     </row>
     <row r="99" spans="12:19" x14ac:dyDescent="0.25">
@@ -7340,14 +7198,1161 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="B3:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C3" s="13">
+        <v>64</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="15">
+        <v>39216</v>
+      </c>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>44524</v>
+      </c>
+      <c r="C4" s="13">
+        <v>75</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="20">
+        <v>59045</v>
+      </c>
+      <c r="F4" s="21">
+        <v>44532</v>
+      </c>
+      <c r="G4" s="22">
+        <v>59045</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>44525</v>
+      </c>
+      <c r="C5" s="13">
+        <v>78</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="20">
+        <v>6961</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
+        <v>44526</v>
+      </c>
+      <c r="C6" s="13">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20">
+        <v>757</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C7" s="13">
+        <v>89</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="20">
+        <v>53508</v>
+      </c>
+      <c r="F7" s="21">
+        <v>44532</v>
+      </c>
+      <c r="G7" s="22">
+        <v>53508</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>44531</v>
+      </c>
+      <c r="C8" s="13">
+        <v>92</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="20">
+        <v>1421</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>44534</v>
+      </c>
+      <c r="C9" s="13">
+        <v>98</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="20">
+        <v>519</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>44509</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>44509</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>44510</v>
+      </c>
+      <c r="C12" s="13">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>44512</v>
+      </c>
+      <c r="C13" s="13">
+        <v>53</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C14" s="13">
+        <v>58</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C15" s="13">
+        <v>61</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>44527</v>
+      </c>
+      <c r="C16" s="13">
+        <v>84</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>44527</v>
+      </c>
+      <c r="C17" s="13">
+        <v>85</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>44499</v>
+      </c>
+      <c r="C20" s="13">
+        <v>34</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="20">
+        <v>15657</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>44500</v>
+      </c>
+      <c r="C21" s="13">
+        <v>36</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="20">
+        <v>8585</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>44501</v>
+      </c>
+      <c r="C22" s="13">
+        <v>37</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20">
+        <v>259</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>44502</v>
+      </c>
+      <c r="C23" s="13">
+        <v>38</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="20">
+        <v>8605</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>44503</v>
+      </c>
+      <c r="C24" s="13">
+        <v>39</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="20">
+        <v>235</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>44505</v>
+      </c>
+      <c r="C25" s="13">
+        <v>41</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="20">
+        <v>784</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>44509</v>
+      </c>
+      <c r="C26" s="13">
+        <v>45</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="20">
+        <v>120</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>44510</v>
+      </c>
+      <c r="C27" s="13">
+        <v>48</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="20">
+        <v>1333</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>44511</v>
+      </c>
+      <c r="C28" s="13">
+        <v>50</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="20">
+        <v>2460</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <v>44512</v>
+      </c>
+      <c r="C29" s="13">
+        <v>52</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="20">
+        <v>47911</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <v>44512</v>
+      </c>
+      <c r="C30" s="13">
+        <v>54</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="20">
+        <v>622</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="12">
+        <v>44512</v>
+      </c>
+      <c r="C31" s="13">
+        <v>55</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20">
+        <v>10714</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="12">
+        <v>44512</v>
+      </c>
+      <c r="C32" s="13">
+        <v>56</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1785</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="12">
+        <v>44512</v>
+      </c>
+      <c r="C33" s="13">
+        <v>57</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="20">
+        <v>13805</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C34" s="13">
+        <v>62</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="20">
+        <v>219644</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C35" s="13">
+        <v>63</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2546</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="12">
+        <v>44515</v>
+      </c>
+      <c r="C36" s="13">
+        <v>65</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="67">
+        <v>3711</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="12">
+        <v>44516</v>
+      </c>
+      <c r="C37" s="13">
+        <v>67</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="20">
+        <v>4624</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
+        <v>44517</v>
+      </c>
+      <c r="C38" s="13">
+        <v>69</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="20">
+        <v>178470</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="12">
+        <v>44517</v>
+      </c>
+      <c r="C39" s="13">
+        <v>70</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="20">
+        <v>62080</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="12">
+        <v>44517</v>
+      </c>
+      <c r="C40" s="13">
+        <v>71</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="20">
+        <v>101</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="12">
+        <v>44518</v>
+      </c>
+      <c r="C41" s="13">
+        <v>72</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="20">
+        <v>8588</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="12">
+        <v>44520</v>
+      </c>
+      <c r="C42" s="13">
+        <v>73</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="20">
+        <v>768</v>
+      </c>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="12">
+        <v>44524</v>
+      </c>
+      <c r="C43" s="13">
+        <v>77</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="20">
+        <v>13576</v>
+      </c>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="12">
+        <v>44526</v>
+      </c>
+      <c r="C44" s="13">
+        <v>81</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="20">
+        <v>8799</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C45" s="13">
+        <v>86</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="20">
+        <v>376</v>
+      </c>
+      <c r="F45" s="21"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C46" s="13">
+        <v>87</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="20">
+        <v>21811</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C47" s="13">
+        <v>88</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="20">
+        <v>126</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C48" s="13">
+        <v>90</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="20">
+        <v>86291</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="12">
+        <v>44529</v>
+      </c>
+      <c r="C49" s="13">
+        <v>91</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="20">
+        <v>161750</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="12">
+        <v>44533</v>
+      </c>
+      <c r="C50" s="13">
+        <v>94</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="20">
+        <v>617</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="23">
+        <v>44534</v>
+      </c>
+      <c r="C51" s="13">
+        <v>97</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="20">
+        <v>50957</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="23">
+        <v>44534</v>
+      </c>
+      <c r="C52" s="13">
+        <v>99</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="20">
+        <v>12005</v>
+      </c>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="23">
+        <v>44534</v>
+      </c>
+      <c r="C53" s="13">
+        <v>100</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="20">
+        <v>115785</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="23">
+        <v>44535</v>
+      </c>
+      <c r="C54" s="13">
+        <v>102</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="20">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20">
+        <f>SUM(E20:E54)</f>
+        <v>1065500</v>
+      </c>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="23"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="23">
+        <v>44532</v>
+      </c>
+      <c r="C61" s="13">
+        <v>93</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="20">
+        <v>3135</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="30">
+        <v>44509</v>
+      </c>
+      <c r="C62" s="13">
+        <v>46</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="20">
+        <v>307</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="23">
+        <v>44511</v>
+      </c>
+      <c r="C63" s="13">
+        <v>49</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="20">
+        <v>150</v>
+      </c>
+      <c r="F63" s="21"/>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="23">
+        <v>44512</v>
+      </c>
+      <c r="C64" s="13">
+        <v>51</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="20">
+        <v>8923</v>
+      </c>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="23">
+        <v>44513</v>
+      </c>
+      <c r="C65" s="13">
+        <v>59</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="20">
+        <v>18875</v>
+      </c>
+      <c r="F65" s="21"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="23">
+        <v>44513</v>
+      </c>
+      <c r="C66" s="13">
+        <v>60</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="20">
+        <v>10476</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="23">
+        <v>44515</v>
+      </c>
+      <c r="C67" s="13">
+        <v>66</v>
+      </c>
+      <c r="D67" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="67">
+        <v>2005</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="23">
+        <v>44516</v>
+      </c>
+      <c r="C68" s="13">
+        <v>68</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="20">
+        <v>3512</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="23">
+        <v>44523</v>
+      </c>
+      <c r="C69" s="13">
+        <v>74</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="20">
+        <v>1189.81</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="23">
+        <v>44524</v>
+      </c>
+      <c r="C70" s="13">
+        <v>76</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="20">
+        <v>3655</v>
+      </c>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="23">
+        <v>44525</v>
+      </c>
+      <c r="C71" s="13">
+        <v>79</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="20">
+        <v>15564</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="23">
+        <v>44525</v>
+      </c>
+      <c r="C72" s="13">
+        <v>80</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="20">
+        <v>2279</v>
+      </c>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="23">
+        <v>44526</v>
+      </c>
+      <c r="C73" s="13">
+        <v>82</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="20">
+        <v>3337</v>
+      </c>
+      <c r="F73" s="21"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C74" s="13">
+        <v>95</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="20">
+        <v>1409</v>
+      </c>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C75" s="13">
+        <v>96</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="20">
+        <v>806</v>
+      </c>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="23">
+        <v>44534</v>
+      </c>
+      <c r="C76" s="13">
+        <v>101</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="20">
+        <v>4289</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B3:G63">
+    <sortCondition ref="D3:D63"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7376,27 +8381,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -7433,7 +8438,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="15">
@@ -7442,7 +8447,7 @@
       <c r="F4" s="61"/>
       <c r="G4" s="62"/>
       <c r="H4" s="18">
-        <f>E4-G4</f>
+        <f t="shared" ref="H4:H10" si="0">E4-G4</f>
         <v>39216</v>
       </c>
       <c r="I4" s="2"/>
@@ -7468,7 +8473,7 @@
         <v>59045</v>
       </c>
       <c r="H5" s="18">
-        <f>E5-G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7489,7 +8494,7 @@
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
       <c r="H6" s="18">
-        <f>E6-G6</f>
+        <f t="shared" si="0"/>
         <v>6961</v>
       </c>
     </row>
@@ -7510,7 +8515,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
       <c r="H7" s="18">
-        <f>E7-G7</f>
+        <f t="shared" si="0"/>
         <v>757</v>
       </c>
     </row>
@@ -7535,7 +8540,7 @@
         <v>53508</v>
       </c>
       <c r="H8" s="18">
-        <f>E8-G8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7556,7 +8561,7 @@
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
       <c r="H9" s="18">
-        <f>E9-G9</f>
+        <f t="shared" si="0"/>
         <v>1421</v>
       </c>
     </row>
@@ -7577,7 +8582,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
       <c r="H10" s="18">
-        <f>E10-G10</f>
+        <f t="shared" si="0"/>
         <v>519</v>
       </c>
     </row>
@@ -7586,16 +8591,16 @@
       <c r="B11" s="13"/>
       <c r="C11" s="24"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="91">
+      <c r="E11" s="80">
         <f>SUM(E4:E10)</f>
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="92">
+      <c r="G11" s="112">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="93"/>
+      <c r="H11" s="113"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -7634,7 +8639,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
-        <f>E14-G14</f>
+        <f t="shared" ref="H14:H21" si="1">E14-G14</f>
         <v>0</v>
       </c>
     </row>
@@ -7655,7 +8660,7 @@
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
-        <f>E15-G15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7676,7 +8681,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
-        <f>E16-G16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7687,7 +8692,7 @@
       <c r="B17" s="13">
         <v>53</v>
       </c>
-      <c r="C17" s="88"/>
+      <c r="C17" s="77"/>
       <c r="D17" s="64" t="s">
         <v>9</v>
       </c>
@@ -7697,7 +8702,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
-        <f>E17-G17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7708,7 +8713,7 @@
       <c r="B18" s="13">
         <v>58</v>
       </c>
-      <c r="C18" s="89"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="64" t="s">
         <v>9</v>
       </c>
@@ -7718,7 +8723,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
-        <f>E18-G18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7739,7 +8744,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
       <c r="H19" s="18">
-        <f>E19-G19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7750,7 +8755,7 @@
       <c r="B20" s="13">
         <v>84</v>
       </c>
-      <c r="C20" s="89"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="64" t="s">
         <v>9</v>
       </c>
@@ -7760,7 +8765,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18">
-        <f>E20-G20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7781,7 +8786,7 @@
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
       <c r="H21" s="18">
-        <f>E21-G21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7812,7 +8817,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
-        <f t="shared" ref="H22:H29" si="0">E23-G23</f>
+        <f t="shared" ref="H23:H29" si="2">E23-G23</f>
         <v>15657</v>
       </c>
     </row>
@@ -7833,7 +8838,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8585</v>
       </c>
     </row>
@@ -7854,7 +8859,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>259</v>
       </c>
     </row>
@@ -7875,7 +8880,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8605</v>
       </c>
     </row>
@@ -7896,7 +8901,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
     </row>
@@ -7917,7 +8922,7 @@
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>784</v>
       </c>
     </row>
@@ -7942,7 +8947,7 @@
         <v>1676</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7963,7 +8968,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="18">
-        <f>E30-G30</f>
+        <f t="shared" ref="H30:H59" si="3">E30-G30</f>
         <v>120</v>
       </c>
     </row>
@@ -7975,16 +8980,16 @@
         <v>46</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="99">
+      <c r="D31" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="84">
         <v>307</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="85"/>
       <c r="G31" s="22"/>
-      <c r="H31" s="101">
-        <f>E31-G31</f>
+      <c r="H31" s="86">
+        <f t="shared" si="3"/>
         <v>307</v>
       </c>
     </row>
@@ -8005,7 +9010,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
-        <f>E32-G32</f>
+        <f t="shared" si="3"/>
         <v>1333</v>
       </c>
     </row>
@@ -8026,7 +9031,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="18">
-        <f>E33-G33</f>
+        <f t="shared" si="3"/>
         <v>2460</v>
       </c>
     </row>
@@ -8047,7 +9052,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
       <c r="H34" s="18">
-        <f>E34-G34</f>
+        <f t="shared" si="3"/>
         <v>47911</v>
       </c>
     </row>
@@ -8068,7 +9073,7 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
-        <f>E35-G35</f>
+        <f t="shared" si="3"/>
         <v>622</v>
       </c>
     </row>
@@ -8079,7 +9084,7 @@
       <c r="B36" s="13">
         <v>55</v>
       </c>
-      <c r="C36" s="88"/>
+      <c r="C36" s="77"/>
       <c r="D36" s="19" t="s">
         <v>18</v>
       </c>
@@ -8089,7 +9094,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
-        <f>E36-G36</f>
+        <f t="shared" si="3"/>
         <v>10714</v>
       </c>
     </row>
@@ -8110,7 +9115,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
-        <f>E37-G37</f>
+        <f t="shared" si="3"/>
         <v>1785</v>
       </c>
     </row>
@@ -8121,7 +9126,7 @@
       <c r="B38" s="13">
         <v>57</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="19" t="s">
         <v>18</v>
       </c>
@@ -8131,7 +9136,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
       <c r="H38" s="18">
-        <f>E38-G38</f>
+        <f t="shared" si="3"/>
         <v>13805</v>
       </c>
     </row>
@@ -8152,7 +9157,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
-        <f>E39-G39</f>
+        <f t="shared" si="3"/>
         <v>219644</v>
       </c>
     </row>
@@ -8173,7 +9178,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
-        <f>E40-G40</f>
+        <f t="shared" si="3"/>
         <v>2546</v>
       </c>
     </row>
@@ -8194,7 +9199,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
-        <f>E41-G41</f>
+        <f t="shared" si="3"/>
         <v>3711</v>
       </c>
     </row>
@@ -8215,7 +9220,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
-        <f>E42-G42</f>
+        <f t="shared" si="3"/>
         <v>4624</v>
       </c>
     </row>
@@ -8236,7 +9241,7 @@
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
-        <f>E43-G43</f>
+        <f t="shared" si="3"/>
         <v>178470</v>
       </c>
     </row>
@@ -8257,7 +9262,7 @@
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
-        <f>E44-G44</f>
+        <f t="shared" si="3"/>
         <v>62080</v>
       </c>
     </row>
@@ -8278,7 +9283,7 @@
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
       <c r="H45" s="18">
-        <f>E45-G45</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
     </row>
@@ -8299,7 +9304,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
       <c r="H46" s="18">
-        <f>E46-G46</f>
+        <f t="shared" si="3"/>
         <v>8588</v>
       </c>
     </row>
@@ -8320,7 +9325,7 @@
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
       <c r="H47" s="18">
-        <f>E47-G47</f>
+        <f t="shared" si="3"/>
         <v>768</v>
       </c>
     </row>
@@ -8341,7 +9346,7 @@
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
       <c r="H48" s="18">
-        <f>E48-G48</f>
+        <f t="shared" si="3"/>
         <v>13576</v>
       </c>
     </row>
@@ -8362,7 +9367,7 @@
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
       <c r="H49" s="18">
-        <f>E49-G49</f>
+        <f t="shared" si="3"/>
         <v>8799</v>
       </c>
     </row>
@@ -8383,7 +9388,7 @@
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
       <c r="H50" s="18">
-        <f>E50-G50</f>
+        <f t="shared" si="3"/>
         <v>376</v>
       </c>
     </row>
@@ -8404,7 +9409,7 @@
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
       <c r="H51" s="18">
-        <f>E51-G51</f>
+        <f t="shared" si="3"/>
         <v>21811</v>
       </c>
     </row>
@@ -8425,7 +9430,7 @@
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
       <c r="H52" s="18">
-        <f>E52-G52</f>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
     </row>
@@ -8446,7 +9451,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
       <c r="H53" s="18">
-        <f>E53-G53</f>
+        <f t="shared" si="3"/>
         <v>86291</v>
       </c>
     </row>
@@ -8467,7 +9472,7 @@
       <c r="F54" s="21"/>
       <c r="G54" s="22"/>
       <c r="H54" s="18">
-        <f>E54-G54</f>
+        <f t="shared" si="3"/>
         <v>161750</v>
       </c>
     </row>
@@ -8488,7 +9493,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
       <c r="H55" s="18">
-        <f>E55-G55</f>
+        <f t="shared" si="3"/>
         <v>617</v>
       </c>
     </row>
@@ -8509,7 +9514,7 @@
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
       <c r="H56" s="18">
-        <f>E56-G56</f>
+        <f t="shared" si="3"/>
         <v>50957</v>
       </c>
     </row>
@@ -8530,7 +9535,7 @@
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
       <c r="H57" s="18">
-        <f>E57-G57</f>
+        <f t="shared" si="3"/>
         <v>12005</v>
       </c>
     </row>
@@ -8555,7 +9560,7 @@
         <v>1065501.8999999999</v>
       </c>
       <c r="H58" s="18">
-        <f>E58-G58</f>
+        <f t="shared" si="3"/>
         <v>-949716.89999999991</v>
       </c>
     </row>
@@ -8567,16 +9572,16 @@
         <v>102</v>
       </c>
       <c r="C59" s="24"/>
-      <c r="D59" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="99">
+      <c r="D59" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="84">
         <v>12020</v>
       </c>
-      <c r="F59" s="100"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="101">
-        <f>E59-G59</f>
+      <c r="F59" s="85"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="86">
+        <f t="shared" si="3"/>
         <v>12020</v>
       </c>
     </row>
@@ -8585,13 +9590,13 @@
       <c r="B60" s="13"/>
       <c r="C60" s="24"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="91">
+      <c r="E60" s="80">
         <f>SUM(E14:E59)</f>
         <v>1079503</v>
       </c>
       <c r="F60" s="21"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="97">
+      <c r="G60" s="81"/>
+      <c r="H60" s="82">
         <f>SUM(H23:H59)</f>
         <v>12325.100000000093</v>
       </c>
@@ -8694,7 +9699,7 @@
       <c r="B68" s="13">
         <v>51</v>
       </c>
-      <c r="C68" s="88"/>
+      <c r="C68" s="77"/>
       <c r="D68" s="19" t="s">
         <v>14</v>
       </c>
@@ -8704,7 +9709,7 @@
       <c r="F68" s="21"/>
       <c r="G68" s="22"/>
       <c r="H68" s="18">
-        <f t="shared" ref="H68:H85" si="1">E68-G68</f>
+        <f t="shared" ref="H68:H85" si="4">E68-G68</f>
         <v>8923</v>
       </c>
     </row>
@@ -8725,7 +9730,7 @@
       <c r="F69" s="21"/>
       <c r="G69" s="22"/>
       <c r="H69" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18875</v>
       </c>
     </row>
@@ -8746,7 +9751,7 @@
       <c r="F70" s="21"/>
       <c r="G70" s="22"/>
       <c r="H70" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10476</v>
       </c>
     </row>
@@ -8767,7 +9772,7 @@
       <c r="F71" s="21"/>
       <c r="G71" s="22"/>
       <c r="H71" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2005</v>
       </c>
     </row>
@@ -8788,7 +9793,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="22"/>
       <c r="H72" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3512</v>
       </c>
     </row>
@@ -8809,7 +9814,7 @@
       <c r="F73" s="21"/>
       <c r="G73" s="22"/>
       <c r="H73" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1189.81</v>
       </c>
     </row>
@@ -8830,7 +9835,7 @@
       <c r="F74" s="21"/>
       <c r="G74" s="22"/>
       <c r="H74" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3655</v>
       </c>
     </row>
@@ -8851,7 +9856,7 @@
       <c r="F75" s="21"/>
       <c r="G75" s="22"/>
       <c r="H75" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15564</v>
       </c>
     </row>
@@ -8872,7 +9877,7 @@
       <c r="F76" s="21"/>
       <c r="G76" s="22"/>
       <c r="H76" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2279</v>
       </c>
     </row>
@@ -8893,7 +9898,7 @@
       <c r="F77" s="21"/>
       <c r="G77" s="22"/>
       <c r="H77" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3337</v>
       </c>
     </row>
@@ -8914,7 +9919,7 @@
       <c r="F78" s="21"/>
       <c r="G78" s="22"/>
       <c r="H78" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1409</v>
       </c>
     </row>
@@ -8935,7 +9940,7 @@
       <c r="F79" s="21"/>
       <c r="G79" s="22"/>
       <c r="H79" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>806</v>
       </c>
     </row>
@@ -8956,7 +9961,7 @@
       <c r="F80" s="21"/>
       <c r="G80" s="22"/>
       <c r="H80" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4289</v>
       </c>
     </row>
@@ -8970,11 +9975,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="94">
+      <c r="G81" s="114">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="95"/>
+      <c r="H81" s="115"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -8985,7 +9990,7 @@
       <c r="F82" s="61"/>
       <c r="G82" s="62"/>
       <c r="H82" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -9000,7 +10005,7 @@
       <c r="F83" s="35"/>
       <c r="G83" s="36"/>
       <c r="H83" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I83" s="2"/>
@@ -9029,7 +10034,7 @@
       <c r="F85" s="42"/>
       <c r="G85" s="43"/>
       <c r="H85" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I85" s="2"/>
@@ -9062,12 +10067,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="81">
+      <c r="E88" s="103">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="82"/>
-      <c r="G88" s="83"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="105"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -9084,11 +10089,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="84" t="s">
+      <c r="E90" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="84"/>
-      <c r="G90" s="84"/>
+      <c r="F90" s="106"/>
+      <c r="G90" s="106"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 11  NOVIEMBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A   NOVIEMBRE     2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5700" yWindow="510" windowWidth="14385" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="REMISIONES OCTUBRE  2021     " sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="23">
   <si>
     <t>REMISION</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>ISRAEL LEDO</t>
+  </si>
+  <si>
+    <t>CENTRAL</t>
+  </si>
+  <si>
+    <t>ODELPA</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -584,12 +590,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,29 +792,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,10 +807,13 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,6 +837,10 @@
     <xf numFmtId="166" fontId="3" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -872,13 +873,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647703</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -925,13 +926,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561977</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>123829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1465,10 +1466,10 @@
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
   </sheetPr>
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:D44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1486,24 +1487,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="101"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="98"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
     </row>
@@ -1545,7 +1546,7 @@
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18">
-        <f t="shared" ref="G4:G116" si="0">D4-F4</f>
+        <f t="shared" ref="G4:G50" si="0">D4-F4</f>
         <v>0</v>
       </c>
       <c r="H4" s="2"/>
@@ -1576,7 +1577,7 @@
         <v>44488</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" ref="B6:B69" si="1">B5+1</f>
+        <f t="shared" ref="B6:B38" si="1">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="64" t="s">
@@ -2289,10 +2290,10 @@
       <c r="B35" s="13">
         <v>32</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="109">
         <v>2515</v>
       </c>
       <c r="E35" s="21"/>
@@ -2309,10 +2310,10 @@
       <c r="B36" s="13">
         <v>33</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="109">
         <v>340</v>
       </c>
       <c r="E36" s="21"/>
@@ -2453,10 +2454,10 @@
       <c r="B43" s="13">
         <v>40</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="109">
         <v>1618</v>
       </c>
       <c r="E43" s="21"/>
@@ -2488,10 +2489,7 @@
     </row>
     <row r="45" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
-      <c r="B45" s="13">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
+      <c r="B45" s="13"/>
       <c r="C45" s="19"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
@@ -2503,10 +2501,7 @@
     </row>
     <row r="46" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
-      <c r="B46" s="13">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
+      <c r="B46" s="13"/>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
@@ -2518,14 +2513,11 @@
     </row>
     <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
-      <c r="B47" s="13">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2533,1202 +2525,215 @@
     </row>
     <row r="48" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="13">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="13">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
-      <c r="B50" s="13">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="13">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="13">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-      <c r="B53" s="13">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-      <c r="B54" s="13">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
-      <c r="B55" s="13">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
-      <c r="B56" s="13">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="13">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
-      <c r="B58" s="13">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="13">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
-      <c r="B60" s="13">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="13">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" s="13">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
-      <c r="B64" s="13">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
-      <c r="B65" s="13">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" s="13">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" s="13">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" s="13">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" s="13">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" s="13">
-        <f t="shared" ref="B70:B112" si="2">B69+1</f>
-        <v>67</v>
-      </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" s="13">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
-      <c r="B72" s="13">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
-      <c r="B73" s="13">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
-      <c r="B74" s="13">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="13">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="13">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="13">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
-      <c r="B78" s="13">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
-      <c r="B79" s="13">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
-      <c r="B80" s="13">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" s="13">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="B82" s="13">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="13">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="13">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="13">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="B86" s="13">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="B87" s="13">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="B88" s="13">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="B89" s="13">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="B90" s="13">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="B91" s="13">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
-      <c r="B92" s="13">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
-      <c r="B93" s="13">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="13">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
-      <c r="B95" s="13">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="13">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="13">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="21"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="13">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="13">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="13">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="21"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="13">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="21"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="13">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="13">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
-      <c r="B104" s="13">
-        <f t="shared" si="2"/>
-        <v>101</v>
-      </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
-      <c r="B105" s="13">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
-      <c r="B106" s="13">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
-      <c r="B107" s="13">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
-      <c r="B108" s="13">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
-      <c r="B109" s="13">
-        <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
-      <c r="B110" s="13">
-        <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="21"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
-      <c r="B111" s="13">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="21"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
-      <c r="B112" s="13">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="21"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="23"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="31"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="34">
-        <v>0</v>
-      </c>
-      <c r="E116" s="35"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="37"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="39">
-        <f>SUM(D4:D116)</f>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34">
+        <v>0</v>
+      </c>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="37"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="39">
+        <f>SUM(D4:D50)</f>
         <v>1118134</v>
       </c>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39">
-        <f>SUM(F4:F116)</f>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39">
+        <f>SUM(F4:F50)</f>
         <v>1079536</v>
       </c>
-      <c r="G117" s="40">
-        <f>SUM(G4:G116)</f>
+      <c r="G51" s="40">
+        <f>SUM(G4:G50)</f>
         <v>38598</v>
       </c>
-      <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="37"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B119" s="37"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="45" t="s">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="37"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="37"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="42"/>
-      <c r="F119" s="46" t="s">
+      <c r="E53" s="42"/>
+      <c r="F53" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="G119" s="44"/>
-      <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="37"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="46"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B121" s="37"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="103">
-        <f>D117-F117</f>
+      <c r="G53" s="44"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="37"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="37"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="92">
+        <f>D51-F51</f>
         <v>38598</v>
       </c>
-      <c r="E121" s="104"/>
-      <c r="F121" s="105"/>
-      <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="37"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="43"/>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B123" s="37"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="106" t="s">
+      <c r="E55" s="93"/>
+      <c r="F55" s="94"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="37"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B57" s="37"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="E123" s="106"/>
-      <c r="F123" s="106"/>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="37"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="43"/>
-      <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="30"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="50"/>
-      <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="37"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="43"/>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="37"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="43"/>
-      <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="37"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="43"/>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="37"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="43"/>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="37"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="43"/>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="37"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="43"/>
-      <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="37"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="41"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="43"/>
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="37"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="41"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="43"/>
-      <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="37"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="41"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="43"/>
-      <c r="H134" s="2"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="37"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="30"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="50"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="43"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="43"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="37"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="43"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="37"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="43"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="37"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="43"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="37"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="43"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="37"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="43"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="37"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="43"/>
+      <c r="H68" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D57:F57"/>
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3741,10 +2746,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:S104"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G64"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3758,63 +2763,33 @@
     <col min="7" max="7" width="18" style="56" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="13.140625" style="52" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="53" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="34.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="55" customWidth="1"/>
-    <col min="17" max="17" width="18" style="56" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="99" t="s">
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="I1" s="2"/>
-      <c r="K1" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
-      <c r="K2" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -3838,31 +2813,8 @@
         <v>5</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44508</v>
       </c>
@@ -3887,28 +2839,8 @@
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="K4" s="12">
-        <v>44513</v>
-      </c>
-      <c r="L4" s="13">
-        <v>64</v>
-      </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="15">
-        <v>39216</v>
-      </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="18">
-        <f t="shared" ref="R4:R10" si="1">O4-Q4</f>
-        <v>39216</v>
-      </c>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44509</v>
       </c>
@@ -3929,36 +2861,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
-        <v>44524</v>
-      </c>
-      <c r="L5" s="13">
-        <v>75</v>
-      </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="20">
-        <v>59045</v>
-      </c>
-      <c r="P5" s="21">
-        <v>44532</v>
-      </c>
-      <c r="Q5" s="22">
-        <v>59045</v>
-      </c>
-      <c r="R5" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44509</v>
       </c>
       <c r="B6" s="13">
-        <f t="shared" ref="B6:B64" si="2">B5+1</f>
+        <f t="shared" ref="B6:B64" si="1">B5+1</f>
         <v>44</v>
       </c>
       <c r="C6" s="14"/>
@@ -3974,32 +2883,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="12">
-        <v>44525</v>
-      </c>
-      <c r="L6" s="13">
-        <v>78</v>
-      </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="20">
-        <v>6961</v>
-      </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="18">
-        <f t="shared" si="1"/>
-        <v>6961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>44509</v>
       </c>
       <c r="B7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C7" s="14"/>
@@ -4015,32 +2905,13 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K7" s="23">
-        <v>44526</v>
-      </c>
-      <c r="L7" s="13">
-        <v>83</v>
-      </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="20">
-        <v>757</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="18">
-        <f t="shared" si="1"/>
-        <v>757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="89">
         <v>44509</v>
       </c>
       <c r="B8" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C8" s="90"/>
@@ -4056,36 +2927,13 @@
         <f t="shared" si="0"/>
         <v>307</v>
       </c>
-      <c r="K8" s="12">
-        <v>44529</v>
-      </c>
-      <c r="L8" s="13">
-        <v>89</v>
-      </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="20">
-        <v>53508</v>
-      </c>
-      <c r="P8" s="21">
-        <v>44532</v>
-      </c>
-      <c r="Q8" s="22">
-        <v>53508</v>
-      </c>
-      <c r="R8" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44510</v>
       </c>
       <c r="B9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C9" s="14"/>
@@ -4101,32 +2949,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="12">
-        <v>44531</v>
-      </c>
-      <c r="L9" s="13">
-        <v>92</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="20">
-        <v>1421</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="18">
-        <f t="shared" si="1"/>
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44510</v>
       </c>
       <c r="B10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C10" s="14"/>
@@ -4142,32 +2971,13 @@
         <f t="shared" si="0"/>
         <v>1333</v>
       </c>
-      <c r="K10" s="12">
-        <v>44534</v>
-      </c>
-      <c r="L10" s="13">
-        <v>98</v>
-      </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="20">
-        <v>519</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="18">
-        <f t="shared" si="1"/>
-        <v>519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44511</v>
       </c>
       <c r="B11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C11" s="14"/>
@@ -4183,27 +2993,13 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="80">
-        <f>SUM(O4:O10)</f>
-        <v>161427</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="112">
-        <f>SUM(R4:R10)</f>
-        <v>48874</v>
-      </c>
-      <c r="R11" s="113"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44511</v>
       </c>
       <c r="B12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C12" s="24"/>
@@ -4219,21 +3015,13 @@
         <f t="shared" si="0"/>
         <v>2460</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44512</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C13" s="25"/>
@@ -4249,21 +3037,13 @@
         <f t="shared" si="0"/>
         <v>8923</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44512</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C14" s="24"/>
@@ -4279,32 +3059,13 @@
         <f t="shared" si="0"/>
         <v>47911</v>
       </c>
-      <c r="K14" s="12">
-        <v>44509</v>
-      </c>
-      <c r="L14" s="13">
-        <v>43</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="18">
-        <f t="shared" ref="R14:R21" si="3">O14-Q14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44512</v>
       </c>
       <c r="B15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C15" s="25"/>
@@ -4320,32 +3081,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="12">
-        <v>44509</v>
-      </c>
-      <c r="L15" s="13">
-        <v>44</v>
-      </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="20">
-        <v>0</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44512</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C16" s="24"/>
@@ -4361,32 +3103,13 @@
         <f t="shared" si="0"/>
         <v>622</v>
       </c>
-      <c r="K16" s="12">
-        <v>44510</v>
-      </c>
-      <c r="L16" s="13">
-        <v>47</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="20">
-        <v>0</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44512</v>
       </c>
       <c r="B17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C17" s="25"/>
@@ -4402,32 +3125,13 @@
         <f t="shared" si="0"/>
         <v>10714</v>
       </c>
-      <c r="K17" s="12">
-        <v>44512</v>
-      </c>
-      <c r="L17" s="13">
-        <v>53</v>
-      </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="20">
-        <v>0</v>
-      </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44512</v>
       </c>
       <c r="B18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C18" s="24"/>
@@ -4443,32 +3147,13 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-      <c r="K18" s="12">
-        <v>44513</v>
-      </c>
-      <c r="L18" s="13">
-        <v>58</v>
-      </c>
-      <c r="M18" s="78"/>
-      <c r="N18" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="20">
-        <v>0</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44512</v>
       </c>
       <c r="B19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C19" s="25"/>
@@ -4484,32 +3169,13 @@
         <f t="shared" si="0"/>
         <v>13805</v>
       </c>
-      <c r="K19" s="12">
-        <v>44513</v>
-      </c>
-      <c r="L19" s="13">
-        <v>61</v>
-      </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="20">
-        <v>0</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44513</v>
       </c>
       <c r="B20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C20" s="24"/>
@@ -4525,32 +3191,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="12">
-        <v>44527</v>
-      </c>
-      <c r="L20" s="13">
-        <v>84</v>
-      </c>
-      <c r="M20" s="78"/>
-      <c r="N20" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O20" s="20">
-        <v>0</v>
-      </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44513</v>
       </c>
       <c r="B21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C21" s="24"/>
@@ -4566,32 +3213,13 @@
         <f t="shared" si="0"/>
         <v>18875</v>
       </c>
-      <c r="K21" s="12">
-        <v>44527</v>
-      </c>
-      <c r="L21" s="13">
-        <v>85</v>
-      </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" s="20">
-        <v>0</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44513</v>
       </c>
       <c r="B22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C22" s="24"/>
@@ -4607,21 +3235,13 @@
         <f t="shared" si="0"/>
         <v>10476</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44513</v>
       </c>
       <c r="B23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C23" s="24"/>
@@ -4637,32 +3257,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="12">
-        <v>44499</v>
-      </c>
-      <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="20">
-        <v>15657</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="18">
-        <f t="shared" ref="R23:R29" si="4">O23-Q23</f>
-        <v>15657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44513</v>
       </c>
       <c r="B24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C24" s="24"/>
@@ -4678,32 +3279,13 @@
         <f t="shared" si="0"/>
         <v>219644</v>
       </c>
-      <c r="K24" s="12">
-        <v>44500</v>
-      </c>
-      <c r="L24" s="13">
-        <v>3</v>
-      </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="20">
-        <v>8585</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="18">
-        <f t="shared" si="4"/>
-        <v>8585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44513</v>
       </c>
       <c r="B25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C25" s="24"/>
@@ -4719,39 +3301,20 @@
         <f t="shared" si="0"/>
         <v>2546</v>
       </c>
-      <c r="K25" s="12">
-        <v>44501</v>
-      </c>
-      <c r="L25" s="13">
-        <v>4</v>
-      </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="20">
-        <v>259</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="18">
-        <f t="shared" si="4"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44513</v>
       </c>
       <c r="B26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="84">
         <v>39216</v>
       </c>
       <c r="F26" s="21"/>
@@ -4760,32 +3323,13 @@
         <f t="shared" si="0"/>
         <v>39216</v>
       </c>
-      <c r="K26" s="12">
-        <v>44502</v>
-      </c>
-      <c r="L26" s="13">
-        <v>5</v>
-      </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="20">
-        <v>8605</v>
-      </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="18">
-        <f t="shared" si="4"/>
-        <v>8605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44515</v>
       </c>
       <c r="B27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C27" s="24"/>
@@ -4801,32 +3345,13 @@
         <f t="shared" si="0"/>
         <v>3711</v>
       </c>
-      <c r="K27" s="12">
-        <v>44503</v>
-      </c>
-      <c r="L27" s="13">
-        <v>6</v>
-      </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="20">
-        <v>235</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="18">
-        <f t="shared" si="4"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44515</v>
       </c>
       <c r="B28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C28" s="24"/>
@@ -4842,32 +3367,13 @@
         <f t="shared" si="0"/>
         <v>2005</v>
       </c>
-      <c r="K28" s="12">
-        <v>44505</v>
-      </c>
-      <c r="L28" s="13">
-        <v>8</v>
-      </c>
-      <c r="M28" s="24"/>
-      <c r="N28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="20">
-        <v>784</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="18">
-        <f t="shared" si="4"/>
-        <v>784</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44516</v>
       </c>
       <c r="B29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C29" s="24"/>
@@ -4883,36 +3389,13 @@
         <f t="shared" si="0"/>
         <v>4624</v>
       </c>
-      <c r="K29" s="12">
-        <v>44508</v>
-      </c>
-      <c r="L29" s="13">
-        <v>42</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29" s="20">
-        <v>1676</v>
-      </c>
-      <c r="P29" s="21">
-        <v>44508</v>
-      </c>
-      <c r="Q29" s="22">
-        <v>1676</v>
-      </c>
-      <c r="R29" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44516</v>
       </c>
       <c r="B30" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="C30" s="24"/>
@@ -4928,32 +3411,13 @@
         <f t="shared" si="0"/>
         <v>3512</v>
       </c>
-      <c r="K30" s="12">
-        <v>44509</v>
-      </c>
-      <c r="L30" s="13">
-        <v>45</v>
-      </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" s="20">
-        <v>120</v>
-      </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="18">
-        <f>O30-Q30</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44517</v>
       </c>
       <c r="B31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="C31" s="24"/>
@@ -4969,20 +3433,8 @@
         <f t="shared" si="0"/>
         <v>178470</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="84">
-        <v>0</v>
-      </c>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44517</v>
       </c>
@@ -5003,32 +3455,13 @@
         <f t="shared" si="0"/>
         <v>62080</v>
       </c>
-      <c r="K32" s="12">
-        <v>44510</v>
-      </c>
-      <c r="L32" s="13">
-        <v>48</v>
-      </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32" s="20">
-        <v>1333</v>
-      </c>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="18">
-        <f t="shared" ref="R32:R59" si="5">O32-Q32</f>
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>44517</v>
       </c>
       <c r="B33" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="C33" s="24"/>
@@ -5044,32 +3477,13 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="K33" s="12">
-        <v>44511</v>
-      </c>
-      <c r="L33" s="13">
-        <v>50</v>
-      </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33" s="20">
-        <v>2460</v>
-      </c>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="18">
-        <f t="shared" si="5"/>
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>44518</v>
       </c>
       <c r="B34" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="C34" s="27"/>
@@ -5085,32 +3499,13 @@
         <f t="shared" si="0"/>
         <v>8588</v>
       </c>
-      <c r="K34" s="12">
-        <v>44512</v>
-      </c>
-      <c r="L34" s="13">
-        <v>52</v>
-      </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O34" s="20">
-        <v>47911</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="18">
-        <f t="shared" si="5"/>
-        <v>47911</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>44520</v>
       </c>
       <c r="B35" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="C35" s="28"/>
@@ -5126,32 +3521,13 @@
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="K35" s="12">
-        <v>44512</v>
-      </c>
-      <c r="L35" s="13">
-        <v>54</v>
-      </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35" s="20">
-        <v>622</v>
-      </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="18">
-        <f t="shared" si="5"/>
-        <v>622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>44523</v>
       </c>
       <c r="B36" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="C36" s="24"/>
@@ -5167,32 +3543,13 @@
         <f t="shared" si="0"/>
         <v>1189.81</v>
       </c>
-      <c r="K36" s="12">
-        <v>44512</v>
-      </c>
-      <c r="L36" s="13">
-        <v>55</v>
-      </c>
-      <c r="M36" s="77"/>
-      <c r="N36" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="20">
-        <v>10714</v>
-      </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="18">
-        <f t="shared" si="5"/>
-        <v>10714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>44524</v>
       </c>
       <c r="B37" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C37" s="24"/>
@@ -5212,32 +3569,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K37" s="12">
-        <v>44512</v>
-      </c>
-      <c r="L37" s="13">
-        <v>56</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37" s="20">
-        <v>1785</v>
-      </c>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="18">
-        <f t="shared" si="5"/>
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>44524</v>
       </c>
       <c r="B38" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="C38" s="24"/>
@@ -5253,32 +3591,13 @@
         <f t="shared" si="0"/>
         <v>3655</v>
       </c>
-      <c r="K38" s="12">
-        <v>44512</v>
-      </c>
-      <c r="L38" s="13">
-        <v>57</v>
-      </c>
-      <c r="M38" s="77"/>
-      <c r="N38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38" s="20">
-        <v>13805</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="18">
-        <f t="shared" si="5"/>
-        <v>13805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>44524</v>
       </c>
       <c r="B39" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="C39" s="24"/>
@@ -5294,39 +3613,20 @@
         <f t="shared" si="0"/>
         <v>13576</v>
       </c>
-      <c r="K39" s="12">
-        <v>44513</v>
-      </c>
-      <c r="L39" s="13">
-        <v>62</v>
-      </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39" s="20">
-        <v>219644</v>
-      </c>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="18">
-        <f t="shared" si="5"/>
-        <v>219644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>44525</v>
       </c>
       <c r="B40" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="C40" s="24"/>
       <c r="D40" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="84">
         <v>6961</v>
       </c>
       <c r="F40" s="21"/>
@@ -5335,32 +3635,13 @@
         <f t="shared" si="0"/>
         <v>6961</v>
       </c>
-      <c r="K40" s="12">
-        <v>44513</v>
-      </c>
-      <c r="L40" s="13">
-        <v>63</v>
-      </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40" s="20">
-        <v>2546</v>
-      </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="18">
-        <f t="shared" si="5"/>
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>44525</v>
       </c>
       <c r="B41" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="C41" s="24"/>
@@ -5376,32 +3657,13 @@
         <f t="shared" si="0"/>
         <v>15564</v>
       </c>
-      <c r="K41" s="12">
-        <v>44515</v>
-      </c>
-      <c r="L41" s="13">
-        <v>65</v>
-      </c>
-      <c r="M41" s="24"/>
-      <c r="N41" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" s="67">
-        <v>3711</v>
-      </c>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="18">
-        <f t="shared" si="5"/>
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>44525</v>
       </c>
       <c r="B42" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C42" s="24"/>
@@ -5417,32 +3679,13 @@
         <f t="shared" si="0"/>
         <v>2279</v>
       </c>
-      <c r="K42" s="12">
-        <v>44516</v>
-      </c>
-      <c r="L42" s="13">
-        <v>67</v>
-      </c>
-      <c r="M42" s="24"/>
-      <c r="N42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O42" s="20">
-        <v>4624</v>
-      </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="18">
-        <f t="shared" si="5"/>
-        <v>4624</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>44526</v>
       </c>
       <c r="B43" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="C43" s="24"/>
@@ -5458,32 +3701,13 @@
         <f t="shared" si="0"/>
         <v>8799</v>
       </c>
-      <c r="K43" s="12">
-        <v>44517</v>
-      </c>
-      <c r="L43" s="13">
-        <v>69</v>
-      </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43" s="20">
-        <v>178470</v>
-      </c>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="18">
-        <f t="shared" si="5"/>
-        <v>178470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>44526</v>
       </c>
       <c r="B44" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="C44" s="24"/>
@@ -5499,39 +3723,20 @@
         <f t="shared" si="0"/>
         <v>3337</v>
       </c>
-      <c r="K44" s="12">
-        <v>44517</v>
-      </c>
-      <c r="L44" s="13">
-        <v>70</v>
-      </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44" s="20">
-        <v>62080</v>
-      </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="18">
-        <f t="shared" si="5"/>
-        <v>62080</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>44526</v>
       </c>
       <c r="B45" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="84">
         <v>757</v>
       </c>
       <c r="F45" s="21"/>
@@ -5540,32 +3745,13 @@
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-      <c r="K45" s="12">
-        <v>44517</v>
-      </c>
-      <c r="L45" s="13">
-        <v>71</v>
-      </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" s="20">
-        <v>101</v>
-      </c>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="18">
-        <f t="shared" si="5"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>44527</v>
       </c>
       <c r="B46" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="C46" s="24"/>
@@ -5581,32 +3767,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K46" s="12">
-        <v>44518</v>
-      </c>
-      <c r="L46" s="13">
-        <v>72</v>
-      </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O46" s="20">
-        <v>8588</v>
-      </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="18">
-        <f t="shared" si="5"/>
-        <v>8588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>44527</v>
       </c>
       <c r="B47" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C47" s="24"/>
@@ -5622,32 +3789,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K47" s="12">
-        <v>44520</v>
-      </c>
-      <c r="L47" s="13">
-        <v>73</v>
-      </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47" s="20">
-        <v>768</v>
-      </c>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="18">
-        <f t="shared" si="5"/>
-        <v>768</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>44529</v>
       </c>
       <c r="B48" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="C48" s="24"/>
@@ -5663,32 +3811,13 @@
         <f t="shared" si="0"/>
         <v>376</v>
       </c>
-      <c r="K48" s="12">
-        <v>44524</v>
-      </c>
-      <c r="L48" s="13">
-        <v>77</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O48" s="20">
-        <v>13576</v>
-      </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="18">
-        <f t="shared" si="5"/>
-        <v>13576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>44529</v>
       </c>
       <c r="B49" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="C49" s="24"/>
@@ -5704,32 +3833,13 @@
         <f t="shared" si="0"/>
         <v>21811</v>
       </c>
-      <c r="K49" s="12">
-        <v>44526</v>
-      </c>
-      <c r="L49" s="13">
-        <v>81</v>
-      </c>
-      <c r="M49" s="24"/>
-      <c r="N49" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O49" s="20">
-        <v>8799</v>
-      </c>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="18">
-        <f t="shared" si="5"/>
-        <v>8799</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>44529</v>
       </c>
       <c r="B50" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="C50" s="24"/>
@@ -5745,32 +3855,13 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="K50" s="12">
-        <v>44529</v>
-      </c>
-      <c r="L50" s="13">
-        <v>86</v>
-      </c>
-      <c r="M50" s="24"/>
-      <c r="N50" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50" s="20">
-        <v>376</v>
-      </c>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="18">
-        <f t="shared" si="5"/>
-        <v>376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>44529</v>
       </c>
       <c r="B51" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="C51" s="24"/>
@@ -5790,32 +3881,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K51" s="12">
-        <v>44529</v>
-      </c>
-      <c r="L51" s="13">
-        <v>87</v>
-      </c>
-      <c r="M51" s="24"/>
-      <c r="N51" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51" s="20">
-        <v>21811</v>
-      </c>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="18">
-        <f t="shared" si="5"/>
-        <v>21811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>44529</v>
       </c>
       <c r="B52" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C52" s="24"/>
@@ -5831,32 +3903,13 @@
         <f t="shared" si="0"/>
         <v>86291</v>
       </c>
-      <c r="K52" s="12">
-        <v>44529</v>
-      </c>
-      <c r="L52" s="13">
-        <v>88</v>
-      </c>
-      <c r="M52" s="24"/>
-      <c r="N52" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O52" s="20">
-        <v>126</v>
-      </c>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="18">
-        <f t="shared" si="5"/>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>44529</v>
       </c>
       <c r="B53" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="C53" s="24"/>
@@ -5872,39 +3925,20 @@
         <f t="shared" si="0"/>
         <v>161750</v>
       </c>
-      <c r="K53" s="12">
-        <v>44529</v>
-      </c>
-      <c r="L53" s="13">
-        <v>90</v>
-      </c>
-      <c r="M53" s="24"/>
-      <c r="N53" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O53" s="20">
-        <v>86291</v>
-      </c>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="18">
-        <f t="shared" si="5"/>
-        <v>86291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>44531</v>
       </c>
       <c r="B54" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="C54" s="24"/>
       <c r="D54" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="84">
         <v>1421</v>
       </c>
       <c r="F54" s="21"/>
@@ -5913,39 +3947,20 @@
         <f t="shared" si="0"/>
         <v>1421</v>
       </c>
-      <c r="K54" s="12">
-        <v>44529</v>
-      </c>
-      <c r="L54" s="13">
-        <v>91</v>
-      </c>
-      <c r="M54" s="24"/>
-      <c r="N54" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O54" s="20">
-        <v>161750</v>
-      </c>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="18">
-        <f t="shared" si="5"/>
-        <v>161750</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>44532</v>
       </c>
       <c r="B55" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="C55" s="24"/>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="84">
         <v>3135</v>
       </c>
       <c r="F55" s="21"/>
@@ -5954,32 +3969,13 @@
         <f t="shared" si="0"/>
         <v>3135</v>
       </c>
-      <c r="K55" s="23">
-        <v>44533</v>
-      </c>
-      <c r="L55" s="13">
-        <v>94</v>
-      </c>
-      <c r="M55" s="24"/>
-      <c r="N55" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55" s="20">
-        <v>617</v>
-      </c>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="18">
-        <f t="shared" si="5"/>
-        <v>617</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>44533</v>
       </c>
       <c r="B56" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="C56" s="24"/>
@@ -5995,32 +3991,13 @@
         <f t="shared" si="0"/>
         <v>617</v>
       </c>
-      <c r="K56" s="23">
-        <v>44534</v>
-      </c>
-      <c r="L56" s="13">
-        <v>97</v>
-      </c>
-      <c r="M56" s="24"/>
-      <c r="N56" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O56" s="20">
-        <v>50957</v>
-      </c>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="18">
-        <f t="shared" si="5"/>
-        <v>50957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>44533</v>
       </c>
       <c r="B57" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C57" s="24"/>
@@ -6036,32 +4013,13 @@
         <f t="shared" si="0"/>
         <v>1409</v>
       </c>
-      <c r="K57" s="23">
-        <v>44534</v>
-      </c>
-      <c r="L57" s="13">
-        <v>99</v>
-      </c>
-      <c r="M57" s="24"/>
-      <c r="N57" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57" s="20">
-        <v>12005</v>
-      </c>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="18">
-        <f t="shared" si="5"/>
-        <v>12005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>44533</v>
       </c>
       <c r="B58" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C58" s="24"/>
@@ -6077,36 +4035,13 @@
         <f t="shared" si="0"/>
         <v>806</v>
       </c>
-      <c r="K58" s="23">
-        <v>44534</v>
-      </c>
-      <c r="L58" s="13">
-        <v>100</v>
-      </c>
-      <c r="M58" s="24"/>
-      <c r="N58" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O58" s="20">
-        <v>115785</v>
-      </c>
-      <c r="P58" s="21">
-        <v>44506</v>
-      </c>
-      <c r="Q58" s="22">
-        <v>1065501.8999999999</v>
-      </c>
-      <c r="R58" s="18">
-        <f t="shared" si="5"/>
-        <v>-949716.89999999991</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>44534</v>
       </c>
       <c r="B59" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C59" s="24"/>
@@ -6122,39 +4057,20 @@
         <f t="shared" si="0"/>
         <v>50957</v>
       </c>
-      <c r="K59" s="23">
-        <v>44535</v>
-      </c>
-      <c r="L59" s="13">
-        <v>102</v>
-      </c>
-      <c r="M59" s="24"/>
-      <c r="N59" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59" s="84">
-        <v>12020</v>
-      </c>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="86">
-        <f t="shared" si="5"/>
-        <v>12020</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>44534</v>
       </c>
       <c r="B60" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="84">
         <v>519</v>
       </c>
       <c r="F60" s="21"/>
@@ -6163,27 +4079,13 @@
         <f t="shared" si="0"/>
         <v>519</v>
       </c>
-      <c r="K60" s="23"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="80">
-        <f>SUM(O14:O59)</f>
-        <v>1079196</v>
-      </c>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="82">
-        <f>SUM(R23:R59)</f>
-        <v>12018.100000000093</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>44534</v>
       </c>
       <c r="B61" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="C61" s="24"/>
@@ -6199,21 +4101,13 @@
         <f t="shared" si="0"/>
         <v>12005</v>
       </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="18"/>
-    </row>
-    <row r="62" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>44534</v>
       </c>
       <c r="B62" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C62" s="24"/>
@@ -6229,21 +4123,13 @@
         <f t="shared" si="0"/>
         <v>115785</v>
       </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="18"/>
-    </row>
-    <row r="63" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>44534</v>
       </c>
       <c r="B63" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="C63" s="24"/>
@@ -6261,28 +4147,20 @@
         <f t="shared" si="0"/>
         <v>4289</v>
       </c>
-      <c r="K63" s="23"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="18"/>
-    </row>
-    <row r="64" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>44535</v>
       </c>
       <c r="B64" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="84">
         <v>12020</v>
       </c>
       <c r="F64" s="21"/>
@@ -6293,75 +4171,44 @@
         <f t="shared" si="0"/>
         <v>12020</v>
       </c>
-      <c r="K64" s="23">
-        <v>44532</v>
-      </c>
-      <c r="L64" s="13">
-        <v>93</v>
-      </c>
-      <c r="M64" s="24"/>
-      <c r="N64" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64" s="20">
-        <v>3135</v>
-      </c>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="18">
-        <f>O64-Q64</f>
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="13"/>
       <c r="C65" s="24"/>
       <c r="D65" s="59"/>
-      <c r="E65" s="60"/>
+      <c r="E65" s="60" t="s">
+        <v>21</v>
+      </c>
       <c r="F65" s="61">
         <v>44536</v>
       </c>
       <c r="G65" s="62">
-        <v>1065501.8999999999</v>
+        <v>1031376.9</v>
       </c>
       <c r="H65" s="18">
         <v>0</v>
       </c>
-      <c r="K65" s="23"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="91"/>
-    </row>
-    <row r="66" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="13"/>
       <c r="C66" s="24"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="60"/>
+      <c r="E66" s="60" t="s">
+        <v>22</v>
+      </c>
       <c r="F66" s="61">
         <v>44536</v>
       </c>
       <c r="G66" s="62">
-        <v>81250.19</v>
+        <v>76777.19</v>
       </c>
       <c r="H66" s="18">
         <v>0</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="91"/>
-    </row>
-    <row r="67" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="13"/>
       <c r="C67" s="24"/>
@@ -6372,27 +4219,8 @@
       <c r="H67" s="18">
         <v>0</v>
       </c>
-      <c r="K67" s="12">
-        <v>44498</v>
-      </c>
-      <c r="L67" s="13">
-        <v>32</v>
-      </c>
-      <c r="M67" s="28"/>
-      <c r="N67" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O67" s="20">
-        <v>2515</v>
-      </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="18">
-        <f t="shared" ref="R67:R71" si="6">O67-Q67</f>
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="13"/>
       <c r="C68" s="24"/>
@@ -6403,27 +4231,8 @@
       <c r="H68" s="18">
         <v>0</v>
       </c>
-      <c r="K68" s="12">
-        <v>44499</v>
-      </c>
-      <c r="L68" s="13">
-        <v>33</v>
-      </c>
-      <c r="M68" s="24"/>
-      <c r="N68" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O68" s="20">
-        <v>340</v>
-      </c>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="18">
-        <f t="shared" si="6"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="13"/>
       <c r="C69" s="24"/>
@@ -6434,27 +4243,8 @@
       <c r="H69" s="18">
         <v>0</v>
       </c>
-      <c r="K69" s="12">
-        <v>44505</v>
-      </c>
-      <c r="L69" s="13">
-        <v>40</v>
-      </c>
-      <c r="M69" s="24"/>
-      <c r="N69" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O69" s="20">
-        <v>1618</v>
-      </c>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="18">
-        <f t="shared" si="6"/>
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="13"/>
       <c r="C70" s="24"/>
@@ -6466,26 +4256,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K70" s="89">
-        <v>44509</v>
-      </c>
-      <c r="L70" s="47">
-        <f t="shared" ref="L70" si="7">L69+1</f>
-        <v>41</v>
-      </c>
-      <c r="M70" s="90"/>
-      <c r="N70" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="O70" s="20">
-        <v>307</v>
-      </c>
-      <c r="R70" s="18">
-        <f t="shared" si="6"/>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="13"/>
       <c r="C71" s="32"/>
@@ -6500,27 +4272,8 @@
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="K71" s="23">
-        <v>44511</v>
-      </c>
-      <c r="L71" s="13">
-        <v>49</v>
-      </c>
-      <c r="M71" s="14"/>
-      <c r="N71" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O71" s="20">
-        <v>150</v>
-      </c>
-      <c r="P71" s="21"/>
-      <c r="Q71" s="22"/>
-      <c r="R71" s="18">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37"/>
       <c r="C72" s="38"/>
       <c r="D72" s="2"/>
@@ -6531,34 +4284,15 @@
       <c r="F72" s="39"/>
       <c r="G72" s="39">
         <f>SUM(G4:G71)</f>
-        <v>1260981.0899999999</v>
+        <v>1222383.0899999999</v>
       </c>
       <c r="H72" s="40">
         <f>SUM(H4:H71)</f>
         <v>1172180.81</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="K72" s="23">
-        <v>44512</v>
-      </c>
-      <c r="L72" s="13">
-        <v>51</v>
-      </c>
-      <c r="M72" s="77"/>
-      <c r="N72" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O72" s="20">
-        <v>8923</v>
-      </c>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="18">
-        <f t="shared" ref="R72:R84" si="8">O72-Q72</f>
-        <v>8923</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" s="37"/>
       <c r="C73" s="38"/>
       <c r="D73" s="2"/>
@@ -6567,27 +4301,8 @@
       <c r="G73" s="43"/>
       <c r="H73" s="44"/>
       <c r="I73" s="2"/>
-      <c r="K73" s="23">
-        <v>44513</v>
-      </c>
-      <c r="L73" s="13">
-        <v>59</v>
-      </c>
-      <c r="M73" s="24"/>
-      <c r="N73" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O73" s="20">
-        <v>18875</v>
-      </c>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="18">
-        <f t="shared" si="8"/>
-        <v>18875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="37"/>
       <c r="C74" s="38"/>
       <c r="D74" s="2"/>
@@ -6600,27 +4315,8 @@
       </c>
       <c r="H74" s="44"/>
       <c r="I74" s="2"/>
-      <c r="K74" s="23">
-        <v>44513</v>
-      </c>
-      <c r="L74" s="13">
-        <v>60</v>
-      </c>
-      <c r="M74" s="24"/>
-      <c r="N74" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O74" s="20">
-        <v>10476</v>
-      </c>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="18">
-        <f t="shared" si="8"/>
-        <v>10476</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="37"/>
       <c r="C75" s="38"/>
       <c r="D75" s="2"/>
@@ -6629,58 +4325,20 @@
       <c r="G75" s="46"/>
       <c r="H75" s="44"/>
       <c r="I75" s="2"/>
-      <c r="K75" s="23">
-        <v>44515</v>
-      </c>
-      <c r="L75" s="13">
-        <v>66</v>
-      </c>
-      <c r="M75" s="24"/>
-      <c r="N75" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="O75" s="67">
-        <v>2005</v>
-      </c>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="18">
-        <f t="shared" si="8"/>
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="37"/>
       <c r="C76" s="38"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="103">
+      <c r="E76" s="92">
         <f>E72-G72</f>
-        <v>25428.720000000205</v>
-      </c>
-      <c r="F76" s="104"/>
-      <c r="G76" s="105"/>
+        <v>64026.720000000205</v>
+      </c>
+      <c r="F76" s="93"/>
+      <c r="G76" s="94"/>
       <c r="I76" s="2"/>
-      <c r="K76" s="23">
-        <v>44516</v>
-      </c>
-      <c r="L76" s="13">
-        <v>68</v>
-      </c>
-      <c r="M76" s="24"/>
-      <c r="N76" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O76" s="20">
-        <v>3512</v>
-      </c>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="18">
-        <f t="shared" si="8"/>
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="37"/>
       <c r="C77" s="38"/>
       <c r="D77" s="2"/>
@@ -6688,57 +4346,19 @@
       <c r="F77" s="42"/>
       <c r="G77" s="43"/>
       <c r="I77" s="2"/>
-      <c r="K77" s="23">
-        <v>44523</v>
-      </c>
-      <c r="L77" s="13">
-        <v>74</v>
-      </c>
-      <c r="M77" s="24"/>
-      <c r="N77" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O77" s="20">
-        <v>1189.81</v>
-      </c>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="18">
-        <f t="shared" si="8"/>
-        <v>1189.81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="37"/>
       <c r="C78" s="38"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="106" t="s">
+      <c r="E78" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
+      <c r="F78" s="95"/>
+      <c r="G78" s="95"/>
       <c r="I78" s="2"/>
-      <c r="K78" s="23">
-        <v>44524</v>
-      </c>
-      <c r="L78" s="13">
-        <v>76</v>
-      </c>
-      <c r="M78" s="24"/>
-      <c r="N78" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="O78" s="20">
-        <v>3655</v>
-      </c>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="18">
-        <f t="shared" si="8"/>
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="37"/>
       <c r="C79" s="38"/>
       <c r="D79" s="2"/>
@@ -6746,27 +4366,8 @@
       <c r="F79" s="42"/>
       <c r="G79" s="43"/>
       <c r="I79" s="2"/>
-      <c r="K79" s="23">
-        <v>44525</v>
-      </c>
-      <c r="L79" s="13">
-        <v>79</v>
-      </c>
-      <c r="M79" s="24"/>
-      <c r="N79" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O79" s="20">
-        <v>15564</v>
-      </c>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="18">
-        <f t="shared" si="8"/>
-        <v>15564</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="47"/>
       <c r="C80" s="48"/>
@@ -6775,27 +4376,8 @@
       <c r="F80" s="51"/>
       <c r="G80" s="50"/>
       <c r="I80" s="2"/>
-      <c r="K80" s="23">
-        <v>44525</v>
-      </c>
-      <c r="L80" s="13">
-        <v>80</v>
-      </c>
-      <c r="M80" s="24"/>
-      <c r="N80" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O80" s="20">
-        <v>2279</v>
-      </c>
-      <c r="P80" s="21"/>
-      <c r="Q80" s="22"/>
-      <c r="R80" s="18">
-        <f t="shared" si="8"/>
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="37"/>
       <c r="C81" s="38"/>
       <c r="D81" s="2"/>
@@ -6803,27 +4385,8 @@
       <c r="F81" s="42"/>
       <c r="G81" s="43"/>
       <c r="I81" s="2"/>
-      <c r="K81" s="23">
-        <v>44526</v>
-      </c>
-      <c r="L81" s="13">
-        <v>82</v>
-      </c>
-      <c r="M81" s="24"/>
-      <c r="N81" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O81" s="20">
-        <v>3337</v>
-      </c>
-      <c r="P81" s="21"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="18">
-        <f t="shared" si="8"/>
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="37"/>
       <c r="C82" s="38"/>
       <c r="D82" s="2"/>
@@ -6831,27 +4394,8 @@
       <c r="F82" s="42"/>
       <c r="G82" s="43"/>
       <c r="I82" s="2"/>
-      <c r="K82" s="23">
-        <v>44533</v>
-      </c>
-      <c r="L82" s="13">
-        <v>95</v>
-      </c>
-      <c r="M82" s="24"/>
-      <c r="N82" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O82" s="20">
-        <v>1409</v>
-      </c>
-      <c r="P82" s="21"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="18">
-        <f t="shared" si="8"/>
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="37"/>
       <c r="C83" s="38"/>
       <c r="D83" s="2"/>
@@ -6859,27 +4403,8 @@
       <c r="F83" s="42"/>
       <c r="G83" s="43"/>
       <c r="I83" s="2"/>
-      <c r="K83" s="23">
-        <v>44533</v>
-      </c>
-      <c r="L83" s="13">
-        <v>96</v>
-      </c>
-      <c r="M83" s="24"/>
-      <c r="N83" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O83" s="20">
-        <v>806</v>
-      </c>
-      <c r="P83" s="21"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="18">
-        <f t="shared" si="8"/>
-        <v>806</v>
-      </c>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="37"/>
       <c r="C84" s="38"/>
       <c r="D84" s="2"/>
@@ -6887,31 +4412,8 @@
       <c r="F84" s="42"/>
       <c r="G84" s="43"/>
       <c r="I84" s="2"/>
-      <c r="K84" s="23">
-        <v>44534</v>
-      </c>
-      <c r="L84" s="13">
-        <v>101</v>
-      </c>
-      <c r="M84" s="24"/>
-      <c r="N84" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O84" s="20">
-        <v>4289</v>
-      </c>
-      <c r="P84" s="21">
-        <v>44536</v>
-      </c>
-      <c r="Q84" s="22">
-        <v>81250.19</v>
-      </c>
-      <c r="R84" s="18">
-        <f t="shared" si="8"/>
-        <v>-76961.19</v>
-      </c>
-    </row>
-    <row r="85" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="37"/>
       <c r="C85" s="38"/>
       <c r="D85" s="2"/>
@@ -6919,21 +4421,8 @@
       <c r="F85" s="42"/>
       <c r="G85" s="43"/>
       <c r="I85" s="2"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="50">
-        <f>SUM(O71:O84)</f>
-        <v>76469.81</v>
-      </c>
-      <c r="P85" s="61"/>
-      <c r="R85" s="92">
-        <f>SUM(R67:R84)</f>
-        <v>-0.38000000000465661</v>
-      </c>
-    </row>
-    <row r="86" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="37"/>
       <c r="C86" s="38"/>
       <c r="D86" s="2"/>
@@ -6941,22 +4430,8 @@
       <c r="F86" s="42"/>
       <c r="G86" s="43"/>
       <c r="I86" s="2"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="34">
-        <v>0</v>
-      </c>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="36"/>
-      <c r="R86" s="18">
-        <f t="shared" ref="R86:R88" si="9">O86-Q86</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="2"/>
-    </row>
-    <row r="87" spans="2:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="37"/>
       <c r="C87" s="38"/>
       <c r="D87" s="2"/>
@@ -6964,22 +4439,8 @@
       <c r="F87" s="42"/>
       <c r="G87" s="43"/>
       <c r="I87" s="2"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="39">
-        <f>SUM(O4:O86)</f>
-        <v>2642100.62</v>
-      </c>
-      <c r="P87" s="39"/>
-      <c r="Q87" s="39">
-        <f>SUM(Q4:Q86)</f>
-        <v>1309855.0899999999</v>
-      </c>
-      <c r="R87" s="18"/>
-      <c r="S87" s="2"/>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
@@ -6987,19 +4448,8 @@
       <c r="F88" s="42"/>
       <c r="G88" s="43"/>
       <c r="I88" s="2"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="41"/>
-      <c r="P88" s="42"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="2"/>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="37"/>
       <c r="C89" s="38"/>
       <c r="D89" s="2"/>
@@ -7007,164 +4457,13 @@
       <c r="F89" s="42"/>
       <c r="G89" s="43"/>
       <c r="I89" s="2"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="93"/>
-      <c r="O89" s="94"/>
-      <c r="P89" s="95"/>
-      <c r="Q89" s="96"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="2"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L90" s="37"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="93"/>
-      <c r="O90" s="94"/>
-      <c r="P90" s="95"/>
-      <c r="Q90" s="96"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="2"/>
-    </row>
-    <row r="91" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="L91" s="37"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="93"/>
-      <c r="O91" s="107"/>
-      <c r="P91" s="107"/>
-      <c r="Q91" s="107"/>
-      <c r="R91" s="44"/>
-      <c r="S91" s="2"/>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L92" s="37"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="93"/>
-      <c r="O92" s="97"/>
-      <c r="P92" s="95"/>
-      <c r="Q92" s="98"/>
-      <c r="S92" s="2"/>
-    </row>
-    <row r="93" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L93" s="37"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="108"/>
-      <c r="P93" s="108"/>
-      <c r="Q93" s="108"/>
-      <c r="S93" s="2"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L94" s="37"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="93"/>
-      <c r="O94" s="97"/>
-      <c r="P94" s="95"/>
-      <c r="Q94" s="98"/>
-      <c r="S94" s="2"/>
-    </row>
-    <row r="95" spans="2:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="K95" s="30"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="49"/>
-      <c r="O95" s="50"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="50"/>
-      <c r="S95" s="2"/>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="L96" s="37"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="93"/>
-      <c r="O96" s="97"/>
-      <c r="P96" s="95"/>
-      <c r="Q96" s="98"/>
-      <c r="S96" s="2"/>
-    </row>
-    <row r="97" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L97" s="37"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="93"/>
-      <c r="O97" s="97"/>
-      <c r="P97" s="95"/>
-      <c r="Q97" s="98"/>
-      <c r="S97" s="2"/>
-    </row>
-    <row r="98" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L98" s="37"/>
-      <c r="M98" s="38"/>
-      <c r="N98" s="93"/>
-      <c r="O98" s="97"/>
-      <c r="P98" s="95"/>
-      <c r="Q98" s="98"/>
-      <c r="S98" s="2"/>
-    </row>
-    <row r="99" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L99" s="37"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="41"/>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="43"/>
-      <c r="S99" s="2"/>
-    </row>
-    <row r="100" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L100" s="37"/>
-      <c r="M100" s="38"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="41"/>
-      <c r="P100" s="42"/>
-      <c r="Q100" s="43"/>
-      <c r="S100" s="2"/>
-    </row>
-    <row r="101" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L101" s="37"/>
-      <c r="M101" s="38"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="42"/>
-      <c r="Q101" s="43"/>
-      <c r="S101" s="2"/>
-    </row>
-    <row r="102" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L102" s="37"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="42"/>
-      <c r="Q102" s="43"/>
-      <c r="S102" s="2"/>
-    </row>
-    <row r="103" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L103" s="37"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="42"/>
-      <c r="Q103" s="43"/>
-      <c r="S103" s="2"/>
-    </row>
-    <row r="104" spans="12:19" x14ac:dyDescent="0.25">
-      <c r="L104" s="37"/>
-      <c r="M104" s="38"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="42"/>
-      <c r="Q104" s="43"/>
-      <c r="S104" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="O93:Q93"/>
+  <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="E78:G78"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7201,10 +4500,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B3:G76"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K24" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7214,1145 +4513,908 @@
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="12">
-        <v>44513</v>
-      </c>
-      <c r="C3" s="13">
-        <v>64</v>
-      </c>
-      <c r="D3" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="15">
-        <v>39216</v>
-      </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>44524</v>
+        <v>44499</v>
       </c>
       <c r="C4" s="13">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" s="20">
-        <v>59045</v>
-      </c>
-      <c r="F4" s="21">
-        <v>44532</v>
-      </c>
-      <c r="G4" s="22">
-        <v>59045</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>15657</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>44525</v>
+        <v>44500</v>
       </c>
       <c r="C5" s="13">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="20">
-        <v>6961</v>
+        <v>8585</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>44526</v>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>44501</v>
       </c>
       <c r="C6" s="13">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="20">
-        <v>757</v>
+        <v>259</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>44529</v>
+        <v>44502</v>
       </c>
       <c r="C7" s="13">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E7" s="20">
-        <v>53508</v>
-      </c>
-      <c r="F7" s="21">
-        <v>44532</v>
-      </c>
-      <c r="G7" s="22">
-        <v>53508</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>8605</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
-        <v>44531</v>
+        <v>44503</v>
       </c>
       <c r="C8" s="13">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" s="20">
-        <v>1421</v>
+        <v>235</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
-        <v>44534</v>
+        <v>44505</v>
       </c>
       <c r="C9" s="13">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" s="20">
-        <v>519</v>
+        <v>784</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>44509</v>
       </c>
       <c r="C10" s="13">
-        <v>43</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="20">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="C11" s="13">
-        <v>44</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="20">
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="C12" s="13">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E12" s="20">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>44512</v>
       </c>
       <c r="C13" s="13">
-        <v>53</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="20">
-        <v>0</v>
+        <v>47911</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="C14" s="13">
-        <v>58</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E14" s="20">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="C15" s="13">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E15" s="20">
-        <v>0</v>
+        <v>10714</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
-        <v>44527</v>
+        <v>44512</v>
       </c>
       <c r="C16" s="13">
-        <v>84</v>
-      </c>
-      <c r="D16" s="64" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="20">
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
-        <v>44527</v>
+        <v>44512</v>
       </c>
       <c r="C17" s="13">
-        <v>85</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>9</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E17" s="20">
-        <v>0</v>
+        <v>13805</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="20"/>
+      <c r="B18" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C18" s="13">
+        <v>62</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20">
+        <v>219644</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="20"/>
+      <c r="B19" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C19" s="13">
+        <v>63</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>2546</v>
+      </c>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
-        <v>44499</v>
+        <v>44515</v>
       </c>
       <c r="C20" s="13">
-        <v>34</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="20">
-        <v>15657</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="67">
+        <v>3711</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>44500</v>
+        <v>44516</v>
       </c>
       <c r="C21" s="13">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" s="20">
-        <v>8585</v>
+        <v>4624</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>44501</v>
+        <v>44517</v>
       </c>
       <c r="C22" s="13">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22" s="20">
-        <v>259</v>
+        <v>178470</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
-        <v>44502</v>
+        <v>44517</v>
       </c>
       <c r="C23" s="13">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E23" s="20">
-        <v>8605</v>
+        <v>62080</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
-        <v>44503</v>
+        <v>44517</v>
       </c>
       <c r="C24" s="13">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24" s="20">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
-        <v>44505</v>
+        <v>44518</v>
       </c>
       <c r="C25" s="13">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E25" s="20">
-        <v>784</v>
+        <v>8588</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
-        <v>44509</v>
+        <v>44520</v>
       </c>
       <c r="C26" s="13">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="20">
-        <v>120</v>
+        <v>768</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="C27" s="13">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="20">
-        <v>1333</v>
+        <v>13576</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
-        <v>44511</v>
+        <v>44526</v>
       </c>
       <c r="C28" s="13">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="20">
-        <v>2460</v>
+        <v>8799</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>44512</v>
+        <v>44529</v>
       </c>
       <c r="C29" s="13">
-        <v>52</v>
-      </c>
-      <c r="D29" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="20">
-        <v>47911</v>
+        <v>376</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
-        <v>44512</v>
+        <v>44529</v>
       </c>
       <c r="C30" s="13">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="20">
-        <v>622</v>
+        <v>21811</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="12">
-        <v>44512</v>
+        <v>44529</v>
       </c>
       <c r="C31" s="13">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="20">
-        <v>10714</v>
+        <v>126</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="12">
-        <v>44512</v>
+        <v>44529</v>
       </c>
       <c r="C32" s="13">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="20">
-        <v>1785</v>
+        <v>86291</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
-        <v>44512</v>
+        <v>44529</v>
       </c>
       <c r="C33" s="13">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="20">
-        <v>13805</v>
+        <v>161750</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
-        <v>44513</v>
+        <v>44533</v>
       </c>
       <c r="C34" s="13">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="20">
-        <v>219644</v>
+        <v>617</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="12">
-        <v>44513</v>
+      <c r="B35" s="23">
+        <v>44534</v>
       </c>
       <c r="C35" s="13">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E35" s="20">
-        <v>2546</v>
+        <v>50957</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="12">
-        <v>44515</v>
+      <c r="B36" s="23">
+        <v>44534</v>
       </c>
       <c r="C36" s="13">
-        <v>65</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="67">
-        <v>3711</v>
+        <v>99</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="20">
+        <v>12005</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
-        <v>44516</v>
+      <c r="B37" s="23">
+        <v>44534</v>
       </c>
       <c r="C37" s="13">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="20">
-        <v>4624</v>
+        <v>115785</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="12">
-        <v>44517</v>
+      <c r="B38" s="23">
+        <v>44535</v>
       </c>
       <c r="C38" s="13">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="20">
-        <v>178470</v>
+        <v>12020</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="12">
-        <v>44517</v>
-      </c>
-      <c r="C39" s="13">
-        <v>70</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="20">
-        <v>62080</v>
+        <f>SUM(E4:E38)</f>
+        <v>1077520</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="12">
-        <v>44517</v>
-      </c>
-      <c r="C40" s="13">
-        <v>71</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="20">
-        <v>101</v>
-      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="12">
-        <v>44518</v>
-      </c>
-      <c r="C41" s="13">
-        <v>72</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="20">
-        <v>8588</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="12">
-        <v>44520</v>
-      </c>
-      <c r="C42" s="13">
-        <v>73</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="20">
-        <v>768</v>
-      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="12">
-        <v>44524</v>
-      </c>
-      <c r="C43" s="13">
-        <v>77</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="20">
-        <v>13576</v>
-      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="12">
-        <v>44526</v>
-      </c>
-      <c r="C44" s="13">
-        <v>81</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="20">
-        <v>8799</v>
-      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
-        <v>44529</v>
+      <c r="B45" s="30">
+        <v>44509</v>
       </c>
       <c r="C45" s="13">
-        <v>86</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="D45" s="74" t="s">
+        <v>14</v>
       </c>
       <c r="E45" s="20">
-        <v>376</v>
+        <v>307</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="22"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
-        <v>44529</v>
+      <c r="B46" s="23">
+        <v>44511</v>
       </c>
       <c r="C46" s="13">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E46" s="20">
-        <v>21811</v>
+        <v>150</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="22"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
-        <v>44529</v>
+      <c r="B47" s="23">
+        <v>44512</v>
       </c>
       <c r="C47" s="13">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E47" s="20">
-        <v>126</v>
+        <v>8923</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="22"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
-        <v>44529</v>
+      <c r="B48" s="23">
+        <v>44513</v>
       </c>
       <c r="C48" s="13">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E48" s="20">
-        <v>86291</v>
+        <v>18875</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
-        <v>44529</v>
+      <c r="B49" s="23">
+        <v>44513</v>
       </c>
       <c r="C49" s="13">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E49" s="20">
-        <v>161750</v>
+        <v>10476</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="22"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
-        <v>44533</v>
+      <c r="B50" s="23">
+        <v>44515</v>
       </c>
       <c r="C50" s="13">
-        <v>94</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="20">
-        <v>617</v>
+        <v>66</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="67">
+        <v>2005</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="22"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="23">
-        <v>44534</v>
+        <v>44516</v>
       </c>
       <c r="C51" s="13">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E51" s="20">
-        <v>50957</v>
+        <v>3512</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="22"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="23">
-        <v>44534</v>
+        <v>44523</v>
       </c>
       <c r="C52" s="13">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E52" s="20">
-        <v>12005</v>
+        <v>1189.81</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="22"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="23">
-        <v>44534</v>
+        <v>44524</v>
       </c>
       <c r="C53" s="13">
-        <v>100</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>14</v>
       </c>
       <c r="E53" s="20">
-        <v>115785</v>
+        <v>3655</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="22"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
-        <v>44535</v>
+        <v>44525</v>
       </c>
       <c r="C54" s="13">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E54" s="20">
-        <v>0</v>
+        <v>15564</v>
       </c>
       <c r="F54" s="21"/>
-      <c r="G54" s="22">
-        <v>12020</v>
-      </c>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="23"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="19"/>
+      <c r="B55" s="23">
+        <v>44525</v>
+      </c>
+      <c r="C55" s="13">
+        <v>80</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="E55" s="20">
-        <f>SUM(E20:E54)</f>
-        <v>1065500</v>
+        <v>2279</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="22"/>
     </row>
     <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="23"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
+      <c r="B56" s="23">
+        <v>44526</v>
+      </c>
+      <c r="C56" s="13">
+        <v>82</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="20">
+        <v>3337</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="22"/>
     </row>
     <row r="57" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="B57" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C57" s="13">
+        <v>95</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="20">
+        <v>1409</v>
+      </c>
       <c r="F57" s="21"/>
       <c r="G57" s="22"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="23"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="B58" s="23">
+        <v>44533</v>
+      </c>
+      <c r="C58" s="13">
+        <v>96</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="20">
+        <v>806</v>
+      </c>
       <c r="F58" s="21"/>
       <c r="G58" s="22"/>
     </row>
     <row r="59" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="23"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
+      <c r="B59" s="23">
+        <v>44534</v>
+      </c>
+      <c r="C59" s="13">
+        <v>101</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="20">
+        <v>4289</v>
+      </c>
       <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="23"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="23">
-        <v>44532</v>
-      </c>
-      <c r="C61" s="13">
-        <v>93</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="20">
-        <v>3135</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="30">
-        <v>44509</v>
-      </c>
-      <c r="C62" s="13">
-        <v>46</v>
-      </c>
-      <c r="D62" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="20">
-        <v>307</v>
-      </c>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="23">
-        <v>44511</v>
-      </c>
-      <c r="C63" s="13">
-        <v>49</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="20">
-        <v>150</v>
-      </c>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="23">
-        <v>44512</v>
-      </c>
-      <c r="C64" s="13">
-        <v>51</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="20">
-        <v>8923</v>
-      </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="23">
-        <v>44513</v>
-      </c>
-      <c r="C65" s="13">
-        <v>59</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="20">
-        <v>18875</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="23">
-        <v>44513</v>
-      </c>
-      <c r="C66" s="13">
-        <v>60</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="20">
-        <v>10476</v>
-      </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="23">
-        <v>44515</v>
-      </c>
-      <c r="C67" s="13">
-        <v>66</v>
-      </c>
-      <c r="D67" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="67">
-        <v>2005</v>
-      </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="23">
-        <v>44516</v>
-      </c>
-      <c r="C68" s="13">
-        <v>68</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="20">
-        <v>3512</v>
-      </c>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="23">
-        <v>44523</v>
-      </c>
-      <c r="C69" s="13">
-        <v>74</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="20">
-        <v>1189.81</v>
-      </c>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B70" s="23">
-        <v>44524</v>
-      </c>
-      <c r="C70" s="13">
-        <v>76</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="20">
-        <v>3655</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B71" s="23">
-        <v>44525</v>
-      </c>
-      <c r="C71" s="13">
-        <v>79</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="20">
-        <v>15564</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="23">
-        <v>44525</v>
-      </c>
-      <c r="C72" s="13">
-        <v>80</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="20">
-        <v>2279</v>
-      </c>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="23">
-        <v>44526</v>
-      </c>
-      <c r="C73" s="13">
-        <v>82</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="20">
-        <v>3337</v>
-      </c>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="23">
-        <v>44533</v>
-      </c>
-      <c r="C74" s="13">
-        <v>95</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="20">
-        <v>1409</v>
-      </c>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="23">
-        <v>44533</v>
-      </c>
-      <c r="C75" s="13">
-        <v>96</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="20">
-        <v>806</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="23">
-        <v>44534</v>
-      </c>
-      <c r="C76" s="13">
-        <v>101</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="20">
-        <v>4289</v>
-      </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22">
-        <v>0</v>
+      <c r="G59" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="107">
+        <f>SUM(E45:E60)</f>
+        <v>76776.81</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B3:G63">
     <sortCondition ref="D3:D63"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8381,27 +5443,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
     </row>
@@ -8596,11 +5658,11 @@
         <v>161427</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="112">
+      <c r="G11" s="102">
         <f>SUM(H4:H10)</f>
         <v>48874</v>
       </c>
-      <c r="H11" s="113"/>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -9975,11 +7037,11 @@
         <v>76469.81</v>
       </c>
       <c r="F81" s="61"/>
-      <c r="G81" s="114">
+      <c r="G81" s="104">
         <f>SUM(H67:H80)</f>
         <v>76469.81</v>
       </c>
-      <c r="H81" s="115"/>
+      <c r="H81" s="105"/>
     </row>
     <row r="82" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
@@ -10067,12 +7129,12 @@
       <c r="B88" s="37"/>
       <c r="C88" s="38"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="103">
+      <c r="E88" s="92">
         <f>E84-G84</f>
         <v>1332859.9100000001</v>
       </c>
-      <c r="F88" s="104"/>
-      <c r="G88" s="105"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="94"/>
       <c r="H88" s="44"/>
       <c r="I88" s="2"/>
     </row>
@@ -10089,11 +7151,11 @@
       <c r="B90" s="37"/>
       <c r="C90" s="38"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="106" t="s">
+      <c r="E90" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="106"/>
-      <c r="G90" s="106"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="95"/>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
